--- a/DKNG.xlsx
+++ b/DKNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC16D96-302F-4589-A8ED-AAE6EAB53069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF899B-7106-44E6-83E7-D29DB5E2DD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="163">
   <si>
     <t>Price</t>
   </si>
@@ -518,13 +518,26 @@
   <si>
     <t xml:space="preserve">Harvard, Major League Baseball, </t>
   </si>
+  <si>
+    <t>Sales &amp; Marketing y/y</t>
+  </si>
+  <si>
+    <t>Approval in different states</t>
+  </si>
+  <si>
+    <t>Customer retention rates</t>
+  </si>
+  <si>
+    <t>moving the business on non-gaap data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -704,7 +717,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -748,17 +761,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -766,6 +773,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3130,7 +3141,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$20</c:f>
+              <c:f>Model!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3205,7 +3216,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$Y$20:$AE$20</c:f>
+              <c:f>Model!$Y$21:$AE$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3489,6 +3500,417 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales &amp; Marketing y/y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Model!$B$2:$S$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Model!$K$2:$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q323</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Model!$B$20:$S$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Model!$K$20:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.49335838181558866</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45053891716460281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40564791898061103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15708913257415991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9461631177179619E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24004108546063119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21054776451849722</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0412850771279105E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.6082172364273903E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35FE-4BEB-944F-3D772460C6A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="612211264"/>
+        <c:axId val="675465584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="612211264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675465584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="675465584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="612211264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10828,6 +11250,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13447,6 +13909,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13594,6 +14572,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6B5C94-7DE1-FBD4-886C-765E7EB854A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13906,10 +14920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N20"/>
+  <dimension ref="B2:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13978,14 +14992,17 @@
       <c r="I3" s="11">
         <v>2082</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="45">
+        <f>I3/($C$7*1000)</f>
+        <v>4.4654928110037669E-6</v>
+      </c>
       <c r="L3" s="5" t="s">
         <v>137</v>
       </c>
       <c r="M3" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="44" t="s">
         <v>156</v>
       </c>
     </row>
@@ -14006,7 +15023,10 @@
       <c r="I4" s="11">
         <v>3583110</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="45">
+        <f>I4/($C$7*1000)</f>
+        <v>7.6850873900267567E-3</v>
+      </c>
       <c r="L4" s="5" t="s">
         <v>139</v>
       </c>
@@ -14032,7 +15052,10 @@
       <c r="I5" s="11">
         <v>3695930</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="45">
+        <f t="shared" ref="J5:J11" si="0">I5/($C$7*1000)</f>
+        <v>7.9270647670380175E-3</v>
+      </c>
       <c r="L5" s="5" t="s">
         <v>141</v>
       </c>
@@ -14062,7 +15085,10 @@
       <c r="I6" s="11">
         <v>28221</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="45">
+        <f t="shared" si="0"/>
+        <v>6.0528661200450193E-5</v>
+      </c>
       <c r="L6" s="5" t="s">
         <v>143</v>
       </c>
@@ -14093,7 +15119,10 @@
       <c r="I7" s="11">
         <v>54379</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="45">
+        <f t="shared" si="0"/>
+        <v>1.1663258096521318E-4</v>
+      </c>
       <c r="L7" s="5" t="s">
         <v>145</v>
       </c>
@@ -14124,7 +15153,10 @@
       <c r="I8" s="11">
         <v>313</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="45">
+        <f t="shared" si="0"/>
+        <v>6.7132528810959608E-7</v>
+      </c>
       <c r="L8" s="5" t="s">
         <v>147</v>
       </c>
@@ -14140,7 +15172,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="17">
-        <f>Model!S24+Model!S25+Model!S26</f>
+        <f>Model!S25+Model!S26+Model!S27</f>
         <v>1797065</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -14155,7 +15187,10 @@
       <c r="I9" s="11">
         <v>3478810</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="45">
+        <f t="shared" si="0"/>
+        <v>7.4613837876311307E-3</v>
+      </c>
       <c r="L9" s="5" t="s">
         <v>149</v>
       </c>
@@ -14171,7 +15206,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="17">
-        <f>Model!S37+Model!S38+Model!S39</f>
+        <f>Model!S38+Model!S39+Model!S40</f>
         <v>1528463</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -14186,7 +15221,10 @@
       <c r="I10" s="11">
         <v>176851</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="45">
+        <f t="shared" si="0"/>
+        <v>3.7931165663728493E-4</v>
+      </c>
       <c r="L10" s="5" t="s">
         <v>151</v>
       </c>
@@ -14217,7 +15255,10 @@
       <c r="I11" s="11">
         <v>174527</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="45">
+        <f t="shared" si="0"/>
+        <v>3.7432711999330184E-4</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="N11" s="15"/>
     </row>
@@ -14243,7 +15284,7 @@
       <c r="B13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <f>C6/Model!AC16</f>
         <v>-13.800632911392404</v>
       </c>
@@ -14288,8 +15329,23 @@
         <v>83</v>
       </c>
     </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>161</v>
+      </c>
+    </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14298,20 +15354,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AE68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="R16:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" style="5"/>
-    <col min="21" max="22" width="11.42578125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -14377,7 +15432,7 @@
       <c r="T2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="46" t="s">
+      <c r="U2" t="s">
         <v>136</v>
       </c>
       <c r="Y2" t="s">
@@ -14464,7 +15519,7 @@
       <c r="T3" s="11">
         <v>1240000</v>
       </c>
-      <c r="U3" s="47">
+      <c r="U3" s="11">
         <v>1040000</v>
       </c>
       <c r="Y3" s="11">
@@ -14482,10 +15537,10 @@
       <c r="AC3" s="17">
         <v>2240461</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3" s="47">
         <v>3680000</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="47">
         <v>4690000</v>
       </c>
     </row>
@@ -14548,7 +15603,7 @@
       <c r="S4" s="17">
         <v>543454</v>
       </c>
-      <c r="T4" s="43"/>
+      <c r="T4"/>
       <c r="Y4" s="11">
         <v>48689</v>
       </c>
@@ -14626,7 +15681,7 @@
       <c r="S5" s="17">
         <v>313323</v>
       </c>
-      <c r="T5" s="43"/>
+      <c r="T5"/>
       <c r="Y5" s="11">
         <v>145580</v>
       </c>
@@ -14704,7 +15759,7 @@
       <c r="S6" s="17">
         <v>89005</v>
       </c>
-      <c r="T6" s="43"/>
+      <c r="T6"/>
       <c r="Y6" s="11">
         <v>32885</v>
       </c>
@@ -14782,7 +15837,7 @@
       <c r="S7" s="17">
         <v>130761</v>
       </c>
-      <c r="T7" s="43"/>
+      <c r="T7"/>
       <c r="Y7" s="11">
         <v>75904</v>
       </c>
@@ -14877,9 +15932,6 @@
         <f t="shared" si="4"/>
         <v>-286586</v>
       </c>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
       <c r="Y8" s="12">
         <f t="shared" ref="Y8:AC8" si="5">Y3-Y4-Y5-Y6-Y7</f>
         <v>-76781</v>
@@ -14965,7 +16017,7 @@
         <f>14420-670</f>
         <v>13750</v>
       </c>
-      <c r="T9" s="43"/>
+      <c r="T9"/>
       <c r="Y9" s="11">
         <v>666</v>
       </c>
@@ -15039,7 +16091,7 @@
         <f>-7751-1217</f>
         <v>-8968</v>
       </c>
-      <c r="T10" s="43"/>
+      <c r="T10"/>
       <c r="Y10" s="11"/>
       <c r="Z10" s="11">
         <v>3000</v>
@@ -15134,9 +16186,6 @@
         <f>S8+S9+S10</f>
         <v>-281804</v>
       </c>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
       <c r="Y11" s="12">
         <f>Y8+Y9+Y10</f>
         <v>-76115</v>
@@ -15219,7 +16268,7 @@
       <c r="S12" s="17">
         <v>1291</v>
       </c>
-      <c r="T12" s="43"/>
+      <c r="T12"/>
       <c r="Y12" s="11">
         <v>-105</v>
       </c>
@@ -15297,7 +16346,7 @@
       <c r="S13" s="17">
         <v>8</v>
       </c>
-      <c r="T13" s="43"/>
+      <c r="T13"/>
       <c r="Y13" s="11">
         <v>0</v>
       </c>
@@ -15412,7 +16461,7 @@
         <f t="shared" si="9"/>
         <v>-844270</v>
       </c>
-      <c r="AB14" s="39">
+      <c r="AB14" s="12">
         <f>AB11-AB12-AB13</f>
         <v>-1523195</v>
       </c>
@@ -15420,11 +16469,11 @@
         <f>AC11-AC12-AC13</f>
         <v>-1377987</v>
       </c>
-      <c r="AD14" s="39">
+      <c r="AD14" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="39">
+      <c r="AE14" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -15443,31 +16492,31 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <f>E14/E16</f>
+        <f t="shared" ref="E15:K15" si="10">E14/E16</f>
         <v>185621.62162162163</v>
       </c>
       <c r="F15" s="11">
-        <f>F14/F16</f>
+        <f t="shared" si="10"/>
         <v>293521.81818181818</v>
       </c>
       <c r="G15" s="11">
-        <f>G14/G16</f>
+        <f t="shared" si="10"/>
         <v>354860.20408163266</v>
       </c>
       <c r="H15" s="11">
-        <f>H14/H16</f>
+        <f t="shared" si="10"/>
         <v>310248.83720930241</v>
       </c>
       <c r="I15" s="11">
-        <f>I14/I16</f>
+        <f t="shared" si="10"/>
         <v>398096.55172413791</v>
       </c>
       <c r="J15" s="11">
-        <f>J14/J16</f>
+        <f t="shared" si="10"/>
         <v>402007.89473684208</v>
       </c>
       <c r="K15" s="11">
-        <f>K14/K16</f>
+        <f t="shared" si="10"/>
         <v>403724.44444444444</v>
       </c>
       <c r="L15" s="11">
@@ -15475,31 +16524,31 @@
         <v>-800867.25069378421</v>
       </c>
       <c r="M15" s="11">
-        <f>M14/M16</f>
+        <f t="shared" ref="M15:S15" si="11">M14/M16</f>
         <v>405309.64912280708</v>
       </c>
       <c r="N15" s="11">
-        <f>N14/N16</f>
+        <f t="shared" si="11"/>
         <v>434206</v>
       </c>
       <c r="O15" s="11">
-        <f>O14/O16</f>
+        <f t="shared" si="11"/>
         <v>450494</v>
       </c>
       <c r="P15" s="11">
-        <f>P14/P16</f>
+        <f t="shared" si="11"/>
         <v>427763.46153846133</v>
       </c>
       <c r="Q15" s="11">
-        <f>Q14/Q16</f>
+        <f t="shared" si="11"/>
         <v>456491.9540229885</v>
       </c>
       <c r="R15" s="11">
-        <f>R14/R16</f>
+        <f t="shared" si="11"/>
         <v>454529.41176470584</v>
       </c>
       <c r="S15" s="17">
-        <f>S14/S16</f>
+        <f t="shared" si="11"/>
         <v>464103.27868852462</v>
       </c>
       <c r="T15" s="11">
@@ -15588,16 +16637,16 @@
       <c r="R16" s="2">
         <v>-0.17</v>
       </c>
-      <c r="S16" s="41">
+      <c r="S16" s="40">
         <v>-0.61</v>
       </c>
-      <c r="T16" s="49">
+      <c r="T16" s="43">
         <v>0.08</v>
       </c>
-      <c r="U16" s="49">
+      <c r="U16" s="43">
         <v>-0.33</v>
       </c>
-      <c r="V16" s="40"/>
+      <c r="V16" s="39"/>
       <c r="Y16" s="2">
         <v>-0.45</v>
       </c>
@@ -15610,13 +16659,13 @@
       <c r="AB16" s="2">
         <v>-3.78</v>
       </c>
-      <c r="AC16" s="41">
+      <c r="AC16" s="40">
         <v>-3.16</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16" s="46">
         <v>-1.52</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AE16" s="46">
         <v>-0.28000000000000003</v>
       </c>
     </row>
@@ -15634,68 +16683,65 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
-        <f>E4/E3</f>
+        <f t="shared" ref="E17:J17" si="12">E4/E3</f>
         <v>0.49034356576539945</v>
       </c>
       <c r="F17" s="3">
-        <f>F4/F3</f>
+        <f t="shared" si="12"/>
         <v>0.66726819021302397</v>
       </c>
       <c r="G17" s="3">
-        <f>G4/G3</f>
+        <f t="shared" si="12"/>
         <v>0.72697913216296783</v>
       </c>
       <c r="H17" s="3">
-        <f>H4/H3</f>
+        <f t="shared" si="12"/>
         <v>0.49429742755793349</v>
       </c>
       <c r="I17" s="3">
-        <f>I4/I3</f>
+        <f t="shared" si="12"/>
         <v>0.58674057564462212</v>
       </c>
       <c r="J17" s="3">
-        <f>J4/J3</f>
+        <f t="shared" si="12"/>
         <v>0.62836981905545941</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" ref="K17:S17" si="10">K4/K3</f>
+        <f t="shared" ref="K17:S17" si="13">K4/K3</f>
         <v>0.80232028155380863</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.53490096656631281</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.7511391282463058</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67090747235539538</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.74250604656351982</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.56767192939577815</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67789078700503602</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58327494750990649</v>
       </c>
       <c r="S17" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.68795390128829792</v>
       </c>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
       <c r="Y17" s="3">
         <f>Y4/Y3</f>
         <v>0.21517432173840029</v>
@@ -15709,11 +16755,11 @@
         <v>0.5639885311098527</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" ref="AB17:AC17" si="11">AB4/AB3</f>
+        <f t="shared" ref="AB17:AC17" si="14">AB4/AB3</f>
         <v>0.61276750062691687</v>
       </c>
       <c r="AC17" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.6624855331112659</v>
       </c>
       <c r="AD17" s="3"/>
@@ -15733,66 +16779,66 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4">
-        <f>E14/E3</f>
+        <f t="shared" ref="E18:J18" si="15">E14/E3</f>
         <v>-0.77567707980393485</v>
       </c>
       <c r="F18" s="4">
-        <f>F14/F3</f>
+        <f t="shared" si="15"/>
         <v>-2.2759724239049217</v>
       </c>
       <c r="G18" s="4">
-        <f>G14/G3</f>
+        <f t="shared" si="15"/>
         <v>-2.6179875937245929</v>
       </c>
       <c r="H18" s="4">
-        <f>H14/H3</f>
+        <f t="shared" si="15"/>
         <v>-0.82804144955512171</v>
       </c>
       <c r="I18" s="4">
-        <f>I14/I3</f>
+        <f t="shared" si="15"/>
         <v>-1.1090957998693463</v>
       </c>
       <c r="J18" s="4">
-        <f>J14/J3</f>
+        <f t="shared" si="15"/>
         <v>-1.0266158162665278</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" ref="K18:S18" si="12">K14/K3</f>
+        <f t="shared" ref="K18:S18" si="16">K14/K3</f>
         <v>-2.5609931444090988</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.67522526805049388</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-1.1074963147613284</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.46570138464343552</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.89750925413098825</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.26011977084266424</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.51600983301544079</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-8.8315939501238394E-2</v>
       </c>
       <c r="S18" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.35837773448428206</v>
       </c>
-      <c r="T18" s="43"/>
+      <c r="T18"/>
       <c r="Y18" s="4">
         <f>Y14/Y3</f>
         <v>-0.33684377996879933</v>
@@ -15806,11 +16852,11 @@
         <v>-1.3738422083797102</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" ref="AB18:AC18" si="13">AB14/AB3</f>
+        <f t="shared" ref="AB18:AC18" si="17">AB14/AB3</f>
         <v>-1.1752821126135684</v>
       </c>
       <c r="AC18" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.61504618915482123</v>
       </c>
       <c r="AD18" s="4">
@@ -15840,55 +16886,55 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
-        <f t="shared" ref="I19:U19" si="14">I3/E3-1</f>
+        <f t="shared" ref="I19:U19" si="18">I3/E3-1</f>
         <v>2.5268686047299584</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.195697226882463</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.60211840163811026</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.46893610946456343</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.33601365458760846</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.5664555367013322</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.3585206208092324</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.80665082131727672</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.84478134250548287</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.87678067719896613</v>
       </c>
       <c r="S19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.57381389733393373</v>
       </c>
-      <c r="T19" s="48">
-        <f t="shared" si="14"/>
+      <c r="T19" s="42">
+        <f t="shared" si="18"/>
         <v>0.45006683170921957</v>
       </c>
-      <c r="U19" s="48">
-        <f t="shared" si="14"/>
+      <c r="U19" s="42">
+        <f t="shared" si="18"/>
         <v>0.35126004999662186</v>
       </c>
       <c r="Z19" s="3">
@@ -15900,15 +16946,15 @@
         <v>0.90016387866794467</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" ref="AB19:AD19" si="15">AB3/AA3-1</f>
+        <f t="shared" ref="AB19:AD19" si="19">AB3/AA3-1</f>
         <v>1.1089625926721474</v>
       </c>
       <c r="AC19" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.72871742443239906</v>
       </c>
       <c r="AD19" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.64251910655887334</v>
       </c>
       <c r="AE19" s="3">
@@ -15918,1796 +16964,1854 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
+        <f>F5/B5-1</f>
+        <v>0.55667149742172484</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" ref="G20:S20" si="20">G5/C5-1</f>
+        <v>2.484756045311991</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <f t="shared" si="20"/>
+        <v>3.2581089636167277</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="20"/>
+        <v>2.696024941543258</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="20"/>
+        <v>0.49335838181558866</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="20"/>
+        <v>0.45053891716460281</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="20"/>
+        <v>0.40564791898061103</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="20"/>
+        <v>0.15708913257415991</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="20"/>
+        <v>5.9461631177179619E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="20"/>
+        <v>0.24004108546063119</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="20"/>
+        <v>0.21054776451849722</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="20"/>
+        <v>5.0412850771279105E-2</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="20"/>
+        <v>-2.6082172364273903E-2</v>
+      </c>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
         <f>F14/B14-1</f>
         <v>4.7424323266816062</v>
       </c>
-      <c r="G20" s="4">
-        <f t="shared" ref="G20:U20" si="16">G14/C14-1</f>
+      <c r="G21" s="4">
+        <f t="shared" ref="G21:S21" si="21">G14/C14-1</f>
         <v>5.2190489815626178</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
-        <f t="shared" si="16"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <f t="shared" si="21"/>
         <v>4.0428654630168896</v>
       </c>
-      <c r="J20" s="4">
-        <f t="shared" si="16"/>
+      <c r="J21" s="4">
+        <f t="shared" si="21"/>
         <v>0.89254012401122429</v>
       </c>
-      <c r="K20" s="4">
-        <f t="shared" si="16"/>
+      <c r="K21" s="4">
+        <f t="shared" si="21"/>
         <v>0.56723975811112748</v>
       </c>
-      <c r="L20" s="4">
-        <f t="shared" si="16"/>
+      <c r="L21" s="4">
+        <f t="shared" si="21"/>
         <v>0.19784194232686447</v>
       </c>
-      <c r="M20" s="4">
-        <f t="shared" si="16"/>
+      <c r="M21" s="4">
+        <f t="shared" si="21"/>
         <v>0.33408691936340751</v>
       </c>
-      <c r="N20" s="4">
-        <f t="shared" si="16"/>
+      <c r="N21" s="4">
+        <f t="shared" si="21"/>
         <v>-0.28941235770441798</v>
       </c>
-      <c r="O20" s="4">
-        <f t="shared" si="16"/>
+      <c r="O21" s="4">
+        <f t="shared" si="21"/>
         <v>-0.17344796964559617</v>
       </c>
-      <c r="P20" s="4">
-        <f t="shared" si="16"/>
+      <c r="P21" s="4">
+        <f t="shared" si="21"/>
         <v>-0.30401657066154364</v>
       </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="16"/>
+      <c r="Q21" s="4">
+        <f t="shared" si="21"/>
         <v>-0.14047089836014481</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R21" s="4">
         <f>R14/N14-1</f>
         <v>-0.64408598683574159</v>
       </c>
-      <c r="S20" s="8">
-        <f t="shared" si="16"/>
+      <c r="S21" s="8">
+        <f t="shared" si="21"/>
         <v>-0.37157209640971911</v>
       </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="Z20" s="3">
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="Z21" s="3">
         <f>-(Z14/Y14-1)</f>
         <v>-0.87265809498819213</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA21" s="3">
         <f>-(AA14/Z14-1)</f>
         <v>-4.9149887202768783</v>
       </c>
-      <c r="AB20" s="3">
-        <f t="shared" ref="AB20:AC20" si="17">-(AB14/AA14-1)</f>
+      <c r="AB21" s="3">
+        <f t="shared" ref="AB21:AC21" si="22">-(AB14/AA14-1)</f>
         <v>-0.80415625333128027</v>
       </c>
-      <c r="AC20" s="7">
-        <f t="shared" si="17"/>
+      <c r="AC21" s="7">
+        <f t="shared" si="22"/>
         <v>9.5331195283598014E-2</v>
       </c>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AC21" s="15"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC22" s="15"/>
     </row>
-    <row r="23" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC23" s="15"/>
+    </row>
+    <row r="24" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="12">
-        <f t="shared" ref="B23:P23" si="18">B24+B25+B26-B37-B38-B39</f>
+      <c r="B24" s="12">
+        <f t="shared" ref="B24:P24" si="23">B25+B26+B27-B38-B39-B40</f>
         <v>0</v>
       </c>
-      <c r="C23" s="12">
-        <f t="shared" si="18"/>
+      <c r="C24" s="12">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="D23" s="12">
-        <f t="shared" si="18"/>
+      <c r="D24" s="12">
+        <f t="shared" si="23"/>
         <v>-14719</v>
       </c>
-      <c r="E23" s="12">
-        <f t="shared" si="18"/>
+      <c r="E24" s="12">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F23" s="12">
-        <f t="shared" si="18"/>
+      <c r="F24" s="12">
+        <f t="shared" si="23"/>
         <v>1121344</v>
       </c>
-      <c r="G23" s="12">
-        <f t="shared" si="18"/>
+      <c r="G24" s="12">
+        <f t="shared" si="23"/>
         <v>914600</v>
       </c>
-      <c r="H23" s="12">
-        <f t="shared" si="18"/>
+      <c r="H24" s="12">
+        <f t="shared" si="23"/>
         <v>1580813</v>
       </c>
-      <c r="I23" s="12">
-        <f t="shared" si="18"/>
+      <c r="I24" s="12">
+        <f t="shared" si="23"/>
         <v>2509478</v>
       </c>
-      <c r="J23" s="12">
-        <f t="shared" si="18"/>
+      <c r="J24" s="12">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K23" s="12">
-        <f t="shared" si="18"/>
+      <c r="K24" s="12">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L23" s="12">
-        <f t="shared" si="18"/>
+      <c r="L24" s="12">
+        <f t="shared" si="23"/>
         <v>1752366</v>
       </c>
-      <c r="M23" s="12">
-        <f t="shared" si="18"/>
+      <c r="M24" s="12">
+        <f t="shared" si="23"/>
         <v>1380752</v>
       </c>
-      <c r="N23" s="12">
-        <f t="shared" si="18"/>
+      <c r="N24" s="12">
+        <f t="shared" si="23"/>
         <v>1076731</v>
       </c>
-      <c r="O23" s="12">
-        <f t="shared" si="18"/>
+      <c r="O24" s="12">
+        <f t="shared" si="23"/>
         <v>768286</v>
       </c>
-      <c r="P23" s="12">
-        <f t="shared" si="18"/>
+      <c r="P24" s="12">
+        <f t="shared" si="23"/>
         <v>692451</v>
       </c>
-      <c r="Q23" s="12">
-        <f>Q24+Q25+Q26-Q37-Q38-Q39</f>
+      <c r="Q24" s="12">
+        <f>Q25+Q26+Q27-Q38-Q39-Q40</f>
         <v>417250</v>
       </c>
-      <c r="R23" s="12">
-        <f t="shared" ref="R23:S23" si="19">R24+R25+R26-R37-R38-R39</f>
+      <c r="R24" s="12">
+        <f t="shared" ref="R24:S24" si="24">R25+R26+R27-R38-R39-R40</f>
         <v>526729</v>
       </c>
-      <c r="S23" s="12">
-        <f t="shared" si="19"/>
+      <c r="S24" s="12">
+        <f t="shared" si="24"/>
         <v>268602</v>
       </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="Y23" s="12">
-        <f t="shared" ref="Y23:Z23" si="20">Y24-Y37-Y38-Y39</f>
+      <c r="T24" s="6"/>
+      <c r="Y24" s="12">
+        <f t="shared" ref="Y24" si="25">Y25-Y38-Y39-Y40</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="12">
-        <f>Z24+Z25+Z26-Z37-Z38-Z39</f>
+      <c r="Z24" s="12">
+        <f>Z25+Z26+Z27-Z38-Z39-Z40</f>
         <v>-14719</v>
       </c>
-      <c r="AA23" s="12">
-        <f>AA24+AA25+AA26-AA37-AA38-AA39</f>
+      <c r="AA24" s="12">
+        <f>AA25+AA26+AA27-AA38-AA39-AA40</f>
         <v>1580813</v>
       </c>
-      <c r="AB23" s="12">
-        <f>AB24+AB25+AB26-AB37-AB38-AB39</f>
+      <c r="AB24" s="12">
+        <f>AB25+AB26+AB27-AB38-AB39-AB40</f>
         <v>1752366</v>
       </c>
-      <c r="AC23" s="16">
-        <f>AC24+AC25+AC26-AC37-AC38-AC39</f>
+      <c r="AC24" s="16">
+        <f>AC25+AC26+AC27-AC38-AC39-AC40</f>
         <v>692451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="11">
-        <v>76533</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1244266</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1140907</v>
-      </c>
-      <c r="H24" s="11">
-        <f>AA24</f>
-        <v>1817258</v>
-      </c>
-      <c r="I24" s="11">
-        <v>2818128</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11">
-        <f>AB24</f>
-        <v>2152892</v>
-      </c>
-      <c r="M24" s="11">
-        <v>1772892</v>
-      </c>
-      <c r="N24" s="11">
-        <v>1514371</v>
-      </c>
-      <c r="O24" s="11">
-        <v>1382651</v>
-      </c>
-      <c r="P24" s="11">
-        <f>AC24</f>
-        <v>1309172</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>1087668</v>
-      </c>
-      <c r="R24" s="11">
-        <v>1113715</v>
-      </c>
-      <c r="S24" s="11">
-        <v>1111596</v>
-      </c>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11">
-        <f>D24</f>
-        <v>76533</v>
-      </c>
-      <c r="AA24" s="11">
-        <v>1817258</v>
-      </c>
-      <c r="AB24" s="11">
-        <v>2152892</v>
-      </c>
-      <c r="AC24" s="17">
-        <v>1309172</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="D25" s="11">
-        <v>144000</v>
+        <v>76533</v>
       </c>
       <c r="F25" s="11">
-        <v>131995</v>
+        <v>1244266</v>
       </c>
       <c r="G25" s="11">
-        <v>257432</v>
+        <v>1140907</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" ref="H25:H44" si="21">AA25</f>
-        <v>287718</v>
+        <f>AA25</f>
+        <v>1817258</v>
       </c>
       <c r="I25" s="11">
-        <v>305732</v>
+        <v>2818128</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11">
-        <f t="shared" ref="L25:L44" si="22">AB25</f>
-        <v>476950</v>
+        <f>AB25</f>
+        <v>2152892</v>
       </c>
       <c r="M25" s="11">
-        <v>464854</v>
+        <v>1772892</v>
       </c>
       <c r="N25" s="11">
-        <v>426169</v>
+        <v>1514371</v>
       </c>
       <c r="O25" s="11">
-        <v>581355</v>
+        <v>1382651</v>
       </c>
       <c r="P25" s="11">
-        <f t="shared" ref="P25:P44" si="23">AC25</f>
-        <v>469653</v>
+        <f>AC25</f>
+        <v>1309172</v>
       </c>
       <c r="Q25" s="11">
-        <v>436935</v>
+        <v>1087668</v>
       </c>
       <c r="R25" s="11">
-        <v>381097</v>
+        <v>1113715</v>
       </c>
       <c r="S25" s="11">
-        <v>475984</v>
+        <v>1111596</v>
       </c>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11">
-        <f t="shared" ref="Z25:Z41" si="24">D25</f>
-        <v>144000</v>
+        <f>D25</f>
+        <v>76533</v>
       </c>
       <c r="AA25" s="11">
-        <v>287718</v>
+        <v>1817258</v>
       </c>
       <c r="AB25" s="11">
-        <v>476950</v>
+        <v>2152892</v>
       </c>
       <c r="AC25" s="17">
-        <v>469653</v>
+        <v>1309172</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="11">
-        <v>19828</v>
+        <v>144000</v>
       </c>
       <c r="F26" s="11">
-        <v>15060</v>
+        <v>131995</v>
       </c>
       <c r="G26" s="11">
-        <v>29099</v>
+        <v>257432</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" si="21"/>
-        <v>30249</v>
+        <f t="shared" ref="H26:H45" si="26">AA26</f>
+        <v>287718</v>
       </c>
       <c r="I26" s="11">
-        <v>24036</v>
+        <v>305732</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11">
-        <f t="shared" si="22"/>
-        <v>51949</v>
+        <f t="shared" ref="L26:L45" si="27">AB26</f>
+        <v>476950</v>
       </c>
       <c r="M26" s="11">
-        <v>55946</v>
+        <v>464854</v>
       </c>
       <c r="N26" s="11">
-        <v>56820</v>
+        <v>426169</v>
       </c>
       <c r="O26" s="11">
-        <v>89454</v>
+        <v>581355</v>
       </c>
       <c r="P26" s="11">
-        <f t="shared" si="23"/>
-        <v>160083</v>
+        <f t="shared" ref="P26:P45" si="28">AC26</f>
+        <v>469653</v>
       </c>
       <c r="Q26" s="11">
-        <v>124536</v>
+        <v>436935</v>
       </c>
       <c r="R26" s="11">
-        <v>109153</v>
+        <v>381097</v>
       </c>
       <c r="S26" s="11">
-        <v>209485</v>
+        <v>475984</v>
       </c>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11">
-        <f t="shared" si="24"/>
-        <v>19828</v>
+        <f t="shared" ref="Z26:Z42" si="29">D26</f>
+        <v>144000</v>
       </c>
       <c r="AA26" s="11">
-        <v>30249</v>
+        <v>287718</v>
       </c>
       <c r="AB26" s="11">
-        <v>51949</v>
+        <v>476950</v>
       </c>
       <c r="AC26" s="17">
-        <v>160083</v>
+        <v>469653</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="D27" s="11">
-        <v>10016</v>
+        <v>19828</v>
       </c>
       <c r="F27" s="11">
-        <v>35104</v>
+        <v>15060</v>
       </c>
       <c r="G27" s="11">
-        <v>46084</v>
+        <v>29099</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="21"/>
-        <v>44522</v>
+        <f t="shared" si="26"/>
+        <v>30249</v>
       </c>
       <c r="I27" s="11">
-        <v>48359</v>
+        <v>24036</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11">
-        <f t="shared" si="22"/>
-        <v>45864</v>
+        <f t="shared" si="27"/>
+        <v>51949</v>
       </c>
       <c r="M27" s="11">
-        <v>48211</v>
+        <v>55946</v>
       </c>
       <c r="N27" s="11">
-        <v>45060</v>
+        <v>56820</v>
       </c>
       <c r="O27" s="11">
-        <v>40991</v>
+        <v>89454</v>
       </c>
       <c r="P27" s="11">
-        <f t="shared" si="23"/>
-        <v>51097</v>
+        <f t="shared" si="28"/>
+        <v>160083</v>
       </c>
       <c r="Q27" s="11">
-        <v>41423</v>
+        <v>124536</v>
       </c>
       <c r="R27" s="11">
-        <v>32401</v>
+        <v>109153</v>
       </c>
       <c r="S27" s="11">
-        <v>27778</v>
+        <v>209485</v>
       </c>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11">
-        <f t="shared" si="24"/>
-        <v>10016</v>
+        <f t="shared" si="29"/>
+        <v>19828</v>
       </c>
       <c r="AA27" s="11">
-        <v>44522</v>
+        <v>30249</v>
       </c>
       <c r="AB27" s="11">
-        <v>45864</v>
+        <v>51949</v>
       </c>
       <c r="AC27" s="17">
-        <v>51097</v>
+        <v>160083</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="11">
-        <v>10771</v>
+        <v>10016</v>
       </c>
       <c r="F28" s="11">
-        <v>24696</v>
+        <v>35104</v>
       </c>
       <c r="G28" s="11">
-        <v>12334</v>
+        <v>46084</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="21"/>
-        <v>14558</v>
+        <f t="shared" si="26"/>
+        <v>44522</v>
       </c>
       <c r="I28" s="11">
-        <v>15226</v>
+        <v>48359</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11">
-        <f t="shared" si="22"/>
-        <v>25675</v>
+        <f t="shared" si="27"/>
+        <v>45864</v>
       </c>
       <c r="M28" s="11">
-        <v>56562</v>
+        <v>48211</v>
       </c>
       <c r="N28" s="11">
-        <v>95249</v>
+        <v>45060</v>
       </c>
       <c r="O28" s="11">
-        <v>98627</v>
+        <v>40991</v>
       </c>
       <c r="P28" s="11">
-        <f t="shared" si="23"/>
-        <v>94836</v>
+        <f t="shared" si="28"/>
+        <v>51097</v>
       </c>
       <c r="Q28" s="11">
-        <v>115194</v>
+        <v>41423</v>
       </c>
       <c r="R28" s="11">
-        <v>82655</v>
+        <v>32401</v>
       </c>
       <c r="S28" s="11">
-        <v>143079</v>
+        <v>27778</v>
       </c>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
+        <v>10016</v>
+      </c>
+      <c r="AA28" s="11">
+        <v>44522</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>45864</v>
+      </c>
+      <c r="AC28" s="17">
+        <v>51097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="11">
         <v>10771</v>
       </c>
-      <c r="AA28" s="11">
+      <c r="F29" s="11">
+        <v>24696</v>
+      </c>
+      <c r="G29" s="11">
+        <v>12334</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="26"/>
         <v>14558</v>
       </c>
-      <c r="AB28" s="11">
+      <c r="I29" s="11">
+        <v>15226</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11">
+        <f t="shared" si="27"/>
         <v>25675</v>
       </c>
-      <c r="AC28" s="17">
+      <c r="M29" s="11">
+        <v>56562</v>
+      </c>
+      <c r="N29" s="11">
+        <v>95249</v>
+      </c>
+      <c r="O29" s="11">
+        <v>98627</v>
+      </c>
+      <c r="P29" s="11">
+        <f t="shared" si="28"/>
         <v>94836</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="Q29" s="11">
+        <v>115194</v>
+      </c>
+      <c r="R29" s="11">
+        <v>82655</v>
+      </c>
+      <c r="S29" s="11">
+        <v>143079</v>
+      </c>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11">
+        <f t="shared" si="29"/>
+        <v>10771</v>
+      </c>
+      <c r="AA29" s="11">
+        <v>14558</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>25675</v>
+      </c>
+      <c r="AC29" s="17">
+        <v>94836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12">
-        <f t="shared" ref="D29:G29" si="25">SUM(D24:D28)</f>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12">
+        <f t="shared" ref="D30:G30" si="30">SUM(D25:D29)</f>
         <v>261148</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12">
-        <f t="shared" si="25"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12">
+        <f t="shared" si="30"/>
         <v>1451121</v>
       </c>
-      <c r="G29" s="12">
-        <f t="shared" si="25"/>
+      <c r="G30" s="12">
+        <f t="shared" si="30"/>
         <v>1485856</v>
       </c>
-      <c r="H29" s="12">
-        <f>SUM(H24:H28)</f>
+      <c r="H30" s="12">
+        <f>SUM(H25:H29)</f>
         <v>2194305</v>
       </c>
-      <c r="I29" s="12">
-        <f t="shared" ref="I29:S29" si="26">SUM(I24:I28)</f>
+      <c r="I30" s="12">
+        <f t="shared" ref="I30:S30" si="31">SUM(I25:I29)</f>
         <v>3211481</v>
       </c>
-      <c r="J29" s="12">
-        <f t="shared" si="26"/>
+      <c r="J30" s="12">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="K29" s="12">
-        <f t="shared" si="26"/>
+      <c r="K30" s="12">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L29" s="12">
-        <f t="shared" si="26"/>
+      <c r="L30" s="12">
+        <f t="shared" si="31"/>
         <v>2753330</v>
       </c>
-      <c r="M29" s="12">
-        <f t="shared" si="26"/>
+      <c r="M30" s="12">
+        <f t="shared" si="31"/>
         <v>2398465</v>
       </c>
-      <c r="N29" s="12">
-        <f t="shared" si="26"/>
+      <c r="N30" s="12">
+        <f t="shared" si="31"/>
         <v>2137669</v>
       </c>
-      <c r="O29" s="12">
-        <f t="shared" si="26"/>
+      <c r="O30" s="12">
+        <f t="shared" si="31"/>
         <v>2193078</v>
       </c>
-      <c r="P29" s="12">
-        <f t="shared" si="26"/>
+      <c r="P30" s="12">
+        <f t="shared" si="31"/>
         <v>2084841</v>
       </c>
-      <c r="Q29" s="12">
-        <f t="shared" si="26"/>
+      <c r="Q30" s="12">
+        <f t="shared" si="31"/>
         <v>1805756</v>
       </c>
-      <c r="R29" s="12">
-        <f t="shared" si="26"/>
+      <c r="R30" s="12">
+        <f t="shared" si="31"/>
         <v>1719021</v>
       </c>
-      <c r="S29" s="12">
-        <f t="shared" si="26"/>
+      <c r="S30" s="12">
+        <f t="shared" si="31"/>
         <v>1967922</v>
       </c>
-      <c r="T29" s="6"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="Y29" s="12">
-        <f>SUM(Y24:Y28)</f>
+      <c r="T30" s="6"/>
+      <c r="Y30" s="12">
+        <f>SUM(Y25:Y29)</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="12">
-        <f>SUM(Z24:Z28)</f>
+      <c r="Z30" s="12">
+        <f>SUM(Z25:Z29)</f>
         <v>261148</v>
       </c>
-      <c r="AA29" s="12">
-        <f t="shared" ref="AA29" si="27">SUM(AA24:AA28)</f>
+      <c r="AA30" s="12">
+        <f t="shared" ref="AA30" si="32">SUM(AA25:AA29)</f>
         <v>2194305</v>
       </c>
-      <c r="AB29" s="12">
-        <f t="shared" ref="AB29" si="28">SUM(AB24:AB28)</f>
+      <c r="AB30" s="12">
+        <f t="shared" ref="AB30" si="33">SUM(AB25:AB29)</f>
         <v>2753330</v>
       </c>
-      <c r="AC29" s="16">
-        <f t="shared" ref="AC29" si="29">SUM(AC24:AC28)</f>
+      <c r="AC30" s="16">
+        <f t="shared" ref="AC30" si="34">SUM(AC25:AC29)</f>
         <v>2084841</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="11">
-        <v>25945</v>
-      </c>
-      <c r="F30" s="11">
-        <v>37002</v>
-      </c>
-      <c r="G30" s="11">
-        <v>39482</v>
-      </c>
-      <c r="H30" s="11">
-        <f t="shared" si="21"/>
-        <v>40827</v>
-      </c>
-      <c r="I30" s="11">
-        <v>42985</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11">
-        <f t="shared" si="22"/>
-        <v>46019</v>
-      </c>
-      <c r="M30" s="11">
-        <v>49734</v>
-      </c>
-      <c r="N30" s="11">
-        <v>53926</v>
-      </c>
-      <c r="O30" s="11">
-        <v>58226</v>
-      </c>
-      <c r="P30" s="11">
-        <f t="shared" si="23"/>
-        <v>60102</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>62273</v>
-      </c>
-      <c r="R30" s="11">
-        <v>59934</v>
-      </c>
-      <c r="S30" s="11">
-        <v>64927</v>
-      </c>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11">
-        <f t="shared" si="24"/>
-        <v>25945</v>
-      </c>
-      <c r="AA30" s="11">
-        <v>40827</v>
-      </c>
-      <c r="AB30" s="11">
-        <v>46019</v>
-      </c>
-      <c r="AC30" s="17">
-        <v>60102</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="F31" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="D31" s="11">
+        <v>25945</v>
+      </c>
+      <c r="F31" s="11">
+        <v>37002</v>
+      </c>
       <c r="G31" s="11">
-        <v>549252</v>
+        <v>39482</v>
       </c>
       <c r="H31" s="11">
-        <f t="shared" si="21"/>
-        <v>555930</v>
+        <f t="shared" si="26"/>
+        <v>40827</v>
       </c>
       <c r="I31" s="11">
-        <v>532077</v>
+        <v>42985</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11">
-        <f t="shared" si="22"/>
-        <v>535017</v>
+        <f t="shared" si="27"/>
+        <v>46019</v>
       </c>
       <c r="M31" s="11">
-        <v>523023</v>
+        <v>49734</v>
       </c>
       <c r="N31" s="11">
-        <v>810525</v>
+        <v>53926</v>
       </c>
       <c r="O31" s="11">
-        <v>788647</v>
+        <v>58226</v>
       </c>
       <c r="P31" s="11">
-        <f t="shared" si="23"/>
-        <v>776934</v>
+        <f t="shared" si="28"/>
+        <v>60102</v>
       </c>
       <c r="Q31" s="11">
-        <v>754509</v>
+        <v>62273</v>
       </c>
       <c r="R31" s="11">
-        <v>734633</v>
+        <v>59934</v>
       </c>
       <c r="S31" s="11">
-        <v>718958</v>
+        <v>64927</v>
       </c>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11">
-        <v>33939</v>
+        <f t="shared" si="29"/>
+        <v>25945</v>
       </c>
       <c r="AA31" s="11">
-        <v>555930</v>
+        <v>40827</v>
       </c>
       <c r="AB31" s="11">
-        <v>535017</v>
+        <v>46019</v>
       </c>
       <c r="AC31" s="17">
-        <v>776934</v>
+        <v>60102</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="11">
-        <v>33939</v>
-      </c>
-      <c r="F32" s="11">
-        <v>542095</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="11">
-        <v>486327</v>
+        <v>549252</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" si="21"/>
-        <v>569603</v>
+        <f t="shared" si="26"/>
+        <v>555930</v>
       </c>
       <c r="I32" s="11">
-        <v>612479</v>
+        <v>532077</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11">
-        <f t="shared" si="22"/>
-        <v>615655</v>
+        <f t="shared" si="27"/>
+        <v>535017</v>
       </c>
       <c r="M32" s="11">
-        <v>615655</v>
+        <v>523023</v>
       </c>
       <c r="N32" s="11">
-        <v>894019</v>
+        <v>810525</v>
       </c>
       <c r="O32" s="11">
-        <v>894019</v>
+        <v>788647</v>
       </c>
       <c r="P32" s="11">
-        <f t="shared" si="23"/>
-        <v>886373</v>
+        <f t="shared" si="28"/>
+        <v>776934</v>
       </c>
       <c r="Q32" s="11">
-        <v>886373</v>
+        <v>754509</v>
       </c>
       <c r="R32" s="11">
-        <v>886373</v>
+        <v>734633</v>
       </c>
       <c r="S32" s="11">
-        <v>886373</v>
+        <v>718958</v>
       </c>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11">
-        <v>4738</v>
+        <v>33939</v>
       </c>
       <c r="AA32" s="11">
-        <v>569603</v>
+        <v>555930</v>
       </c>
       <c r="AB32" s="11">
-        <v>615655</v>
+        <v>535017</v>
       </c>
       <c r="AC32" s="17">
-        <v>886373</v>
+        <v>776934</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D33" s="11">
-        <v>4738</v>
+        <v>33939</v>
       </c>
       <c r="F33" s="11">
-        <v>480578</v>
-      </c>
-      <c r="G33" s="11"/>
+        <v>542095</v>
+      </c>
+      <c r="G33" s="11">
+        <v>486327</v>
+      </c>
       <c r="H33" s="11">
-        <f t="shared" si="21"/>
-        <v>68077</v>
+        <f t="shared" si="26"/>
+        <v>569603</v>
       </c>
       <c r="I33" s="11">
-        <v>73022</v>
+        <v>612479</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11">
-        <f t="shared" si="22"/>
-        <v>63831</v>
+        <f t="shared" si="27"/>
+        <v>615655</v>
       </c>
       <c r="M33" s="11">
-        <v>61169</v>
+        <v>615655</v>
       </c>
       <c r="N33" s="11">
-        <v>77338</v>
+        <v>894019</v>
       </c>
       <c r="O33" s="11">
-        <v>74703</v>
+        <v>894019</v>
       </c>
       <c r="P33" s="11">
-        <f t="shared" si="23"/>
-        <v>65957</v>
+        <f t="shared" si="28"/>
+        <v>886373</v>
       </c>
       <c r="Q33" s="11">
-        <v>60804</v>
+        <v>886373</v>
       </c>
       <c r="R33" s="11">
-        <v>58349</v>
+        <v>886373</v>
       </c>
       <c r="S33" s="11">
-        <v>77180</v>
+        <v>886373</v>
       </c>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11">
-        <v>0</v>
+        <v>4738</v>
       </c>
       <c r="AA33" s="11">
+        <v>569603</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>615655</v>
+      </c>
+      <c r="AC33" s="17">
+        <v>886373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="11">
+        <v>4738</v>
+      </c>
+      <c r="F34" s="11">
+        <v>480578</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11">
+        <f t="shared" si="26"/>
         <v>68077</v>
       </c>
-      <c r="AB33" s="11">
-        <v>63831</v>
-      </c>
-      <c r="AC33" s="17">
-        <v>65957</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34" s="11">
-        <v>2521</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34" s="11">
-        <v>2236</v>
-      </c>
-      <c r="G34" s="11">
-        <v>2141</v>
-      </c>
-      <c r="H34" s="11">
-        <f t="shared" si="21"/>
-        <v>2955</v>
-      </c>
       <c r="I34" s="11">
-        <v>2802</v>
+        <v>73022</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11">
-        <f t="shared" si="22"/>
-        <v>9825</v>
+        <f t="shared" si="27"/>
+        <v>63831</v>
       </c>
       <c r="M34" s="11">
-        <v>7474</v>
+        <v>61169</v>
       </c>
       <c r="N34" s="11">
-        <v>8796</v>
+        <v>77338</v>
       </c>
       <c r="O34" s="11">
-        <v>8746</v>
+        <v>74703</v>
       </c>
       <c r="P34" s="11">
-        <f t="shared" si="23"/>
-        <v>10080</v>
+        <f t="shared" si="28"/>
+        <v>65957</v>
       </c>
       <c r="Q34" s="11">
-        <v>9961</v>
+        <v>60804</v>
       </c>
       <c r="R34" s="11">
-        <v>9638</v>
+        <v>58349</v>
       </c>
       <c r="S34" s="11">
-        <v>9630</v>
-      </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
+        <v>77180</v>
+      </c>
       <c r="Y34" s="11"/>
       <c r="Z34" s="11">
-        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="11">
+        <v>68077</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>63831</v>
+      </c>
+      <c r="AC34" s="17">
+        <v>65957</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35" s="11">
         <v>2521</v>
       </c>
-      <c r="AA34" s="11">
+      <c r="E35"/>
+      <c r="F35" s="11">
+        <v>2236</v>
+      </c>
+      <c r="G35" s="11">
+        <v>2141</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="26"/>
         <v>2955</v>
       </c>
-      <c r="AB34" s="11">
-        <v>9825</v>
-      </c>
-      <c r="AC34" s="17">
-        <v>10080</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="11">
-        <v>2434</v>
-      </c>
-      <c r="F35" s="11">
-        <v>3105</v>
-      </c>
-      <c r="G35" s="11">
-        <v>3601</v>
-      </c>
-      <c r="H35" s="11">
-        <f t="shared" si="21"/>
-        <v>7632</v>
-      </c>
       <c r="I35" s="11">
-        <v>8305</v>
+        <v>2802</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11">
-        <f t="shared" si="22"/>
-        <v>45377</v>
+        <f t="shared" si="27"/>
+        <v>9825</v>
       </c>
       <c r="M35" s="11">
-        <v>90795</v>
+        <v>7474</v>
       </c>
       <c r="N35" s="11">
-        <v>171491</v>
+        <v>8796</v>
       </c>
       <c r="O35" s="11">
-        <v>174634</v>
+        <v>8746</v>
       </c>
       <c r="P35" s="11">
-        <f t="shared" si="23"/>
-        <v>155865</v>
+        <f t="shared" si="28"/>
+        <v>10080</v>
       </c>
       <c r="Q35" s="11">
-        <v>159598</v>
+        <v>9961</v>
       </c>
       <c r="R35" s="11">
-        <v>138316</v>
+        <v>9638</v>
       </c>
       <c r="S35" s="11">
-        <v>136526</v>
-      </c>
+        <v>9630</v>
+      </c>
+      <c r="T35" s="6"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
+        <v>2521</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>2955</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>9825</v>
+      </c>
+      <c r="AC35" s="17">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="11">
         <v>2434</v>
       </c>
-      <c r="AA35" s="11">
+      <c r="F36" s="11">
+        <v>3105</v>
+      </c>
+      <c r="G36" s="11">
+        <v>3601</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="26"/>
         <v>7632</v>
       </c>
-      <c r="AB35" s="11">
+      <c r="I36" s="11">
+        <v>8305</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11">
+        <f t="shared" si="27"/>
         <v>45377</v>
       </c>
-      <c r="AC35" s="17">
+      <c r="M36" s="11">
+        <v>90795</v>
+      </c>
+      <c r="N36" s="11">
+        <v>171491</v>
+      </c>
+      <c r="O36" s="11">
+        <v>174634</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="28"/>
         <v>155865</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="Q36" s="11">
+        <v>159598</v>
+      </c>
+      <c r="R36" s="11">
+        <v>138316</v>
+      </c>
+      <c r="S36" s="11">
+        <v>136526</v>
+      </c>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11">
+        <f t="shared" si="29"/>
+        <v>2434</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>7632</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>45377</v>
+      </c>
+      <c r="AC36" s="17">
+        <v>155865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12">
-        <f>SUM(D29:D35)</f>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12">
+        <f>SUM(D30:D36)</f>
         <v>330725</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12">
-        <f t="shared" ref="F36:S36" si="30">SUM(F29:F35)</f>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12">
+        <f t="shared" ref="F37:S37" si="35">SUM(F30:F36)</f>
         <v>2516137</v>
       </c>
-      <c r="G36" s="12">
-        <f>SUM(G29:G35)</f>
+      <c r="G37" s="12">
+        <f>SUM(G30:G36)</f>
         <v>2566659</v>
       </c>
-      <c r="H36" s="12">
-        <f>SUM(H29:H35)</f>
+      <c r="H37" s="12">
+        <f>SUM(H30:H36)</f>
         <v>3439329</v>
       </c>
-      <c r="I36" s="12">
-        <f t="shared" si="30"/>
+      <c r="I37" s="12">
+        <f t="shared" si="35"/>
         <v>4483151</v>
       </c>
-      <c r="J36" s="12">
-        <f t="shared" si="30"/>
+      <c r="J37" s="12">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="K36" s="12">
-        <f t="shared" si="30"/>
+      <c r="K37" s="12">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="L36" s="12">
-        <f>SUM(L29:L35)</f>
+      <c r="L37" s="12">
+        <f>SUM(L30:L36)</f>
         <v>4069054</v>
       </c>
-      <c r="M36" s="12">
-        <f t="shared" si="30"/>
+      <c r="M37" s="12">
+        <f t="shared" si="35"/>
         <v>3746315</v>
       </c>
-      <c r="N36" s="12">
-        <f>SUM(N29:N35)</f>
+      <c r="N37" s="12">
+        <f>SUM(N30:N36)</f>
         <v>4153764</v>
       </c>
-      <c r="O36" s="12">
-        <f t="shared" si="30"/>
+      <c r="O37" s="12">
+        <f t="shared" si="35"/>
         <v>4192053</v>
       </c>
-      <c r="P36" s="12">
-        <f t="shared" si="30"/>
+      <c r="P37" s="12">
+        <f t="shared" si="35"/>
         <v>4040152</v>
       </c>
-      <c r="Q36" s="12">
-        <f t="shared" si="30"/>
+      <c r="Q37" s="12">
+        <f t="shared" si="35"/>
         <v>3739274</v>
       </c>
-      <c r="R36" s="12">
-        <f t="shared" si="30"/>
+      <c r="R37" s="12">
+        <f t="shared" si="35"/>
         <v>3606264</v>
       </c>
-      <c r="S36" s="12">
-        <f t="shared" si="30"/>
+      <c r="S37" s="12">
+        <f t="shared" si="35"/>
         <v>3861516</v>
       </c>
-      <c r="Y36" s="12">
-        <f t="shared" ref="Y36:Z36" si="31">SUM(Y29:Y35)</f>
+      <c r="Y37" s="12">
+        <f t="shared" ref="Y37:Z37" si="36">SUM(Y30:Y36)</f>
         <v>0</v>
       </c>
-      <c r="Z36" s="12">
-        <f t="shared" si="31"/>
+      <c r="Z37" s="12">
+        <f t="shared" si="36"/>
         <v>330725</v>
       </c>
-      <c r="AA36" s="12">
-        <f t="shared" ref="AA36" si="32">SUM(AA29:AA35)</f>
+      <c r="AA37" s="12">
+        <f t="shared" ref="AA37" si="37">SUM(AA30:AA36)</f>
         <v>3439329</v>
       </c>
-      <c r="AB36" s="12">
-        <f t="shared" ref="AB36" si="33">SUM(AB29:AB35)</f>
+      <c r="AB37" s="12">
+        <f t="shared" ref="AB37" si="38">SUM(AB30:AB36)</f>
         <v>4069054</v>
       </c>
-      <c r="AC36" s="16">
-        <f t="shared" ref="AC36" si="34">SUM(AC29:AC35)</f>
+      <c r="AC37" s="16">
+        <f t="shared" ref="AC37" si="39">SUM(AC30:AC36)</f>
         <v>4040152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="11">
-        <v>85295</v>
-      </c>
-      <c r="F37" s="11">
-        <v>122946</v>
-      </c>
-      <c r="G37" s="11">
-        <v>226332</v>
-      </c>
-      <c r="H37" s="11">
-        <f t="shared" si="21"/>
-        <v>223633</v>
-      </c>
-      <c r="I37" s="11">
-        <v>295306</v>
-      </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11">
-        <f t="shared" si="22"/>
-        <v>387737</v>
-      </c>
-      <c r="M37" s="11">
-        <v>379254</v>
-      </c>
-      <c r="N37" s="11">
-        <v>414680</v>
-      </c>
-      <c r="O37" s="11">
-        <v>560794</v>
-      </c>
-      <c r="P37" s="11">
-        <f t="shared" si="23"/>
-        <v>517587</v>
-      </c>
-      <c r="Q37" s="11">
-        <v>508725</v>
-      </c>
-      <c r="R37" s="11">
-        <v>436265</v>
-      </c>
-      <c r="S37" s="11">
-        <v>594067</v>
-      </c>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11">
-        <f t="shared" si="24"/>
-        <v>85295</v>
-      </c>
-      <c r="AA37" s="11">
-        <v>223633</v>
-      </c>
-      <c r="AB37" s="11">
-        <v>387737</v>
-      </c>
-      <c r="AC37" s="17">
-        <v>517587</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="D38" s="11">
-        <v>163035</v>
+        <v>85295</v>
       </c>
       <c r="F38" s="11">
-        <v>147031</v>
+        <v>122946</v>
       </c>
       <c r="G38" s="11">
-        <v>286506</v>
+        <v>226332</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="21"/>
-        <v>317942</v>
+        <f t="shared" si="26"/>
+        <v>223633</v>
       </c>
       <c r="I38" s="11">
-        <v>329742</v>
+        <v>295306</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11">
-        <f t="shared" si="22"/>
-        <v>528874</v>
+        <f t="shared" si="27"/>
+        <v>387737</v>
       </c>
       <c r="M38" s="11">
-        <v>520775</v>
+        <v>379254</v>
       </c>
       <c r="N38" s="11">
-        <v>482940</v>
+        <v>414680</v>
       </c>
       <c r="O38" s="11">
-        <v>670784</v>
+        <v>560794</v>
       </c>
       <c r="P38" s="11">
-        <f t="shared" si="23"/>
-        <v>686173</v>
+        <f t="shared" si="28"/>
+        <v>517587</v>
       </c>
       <c r="Q38" s="11">
-        <v>670456</v>
+        <v>508725</v>
       </c>
       <c r="R38" s="11">
-        <v>600146</v>
+        <v>436265</v>
       </c>
       <c r="S38" s="11">
-        <v>856334</v>
+        <v>594067</v>
       </c>
       <c r="Y38" s="11"/>
       <c r="Z38" s="11">
-        <f t="shared" si="24"/>
-        <v>163035</v>
+        <f t="shared" si="29"/>
+        <v>85295</v>
       </c>
       <c r="AA38" s="11">
-        <v>317942</v>
+        <v>223633</v>
       </c>
       <c r="AB38" s="11">
-        <v>528874</v>
+        <v>387737</v>
       </c>
       <c r="AC38" s="17">
-        <v>686173</v>
+        <v>517587</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="11">
-        <v>6750</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+        <v>163035</v>
+      </c>
+      <c r="F39" s="11">
+        <v>147031</v>
+      </c>
+      <c r="G39" s="11">
+        <v>286506</v>
+      </c>
       <c r="H39" s="11">
-        <f t="shared" si="21"/>
-        <v>12837</v>
+        <f t="shared" si="26"/>
+        <v>317942</v>
       </c>
       <c r="I39" s="11">
-        <v>13370</v>
+        <v>329742</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
+        <v>528874</v>
+      </c>
+      <c r="M39" s="11">
+        <v>520775</v>
+      </c>
+      <c r="N39" s="11">
+        <v>482940</v>
+      </c>
+      <c r="O39" s="11">
+        <v>670784</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" si="28"/>
+        <v>686173</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>670456</v>
+      </c>
+      <c r="R39" s="11">
+        <v>600146</v>
+      </c>
+      <c r="S39" s="11">
+        <v>856334</v>
+      </c>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11">
+        <f t="shared" si="29"/>
+        <v>163035</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>317942</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>528874</v>
+      </c>
+      <c r="AC39" s="17">
+        <v>686173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="11">
+        <v>6750</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11">
+        <f t="shared" si="26"/>
+        <v>12837</v>
+      </c>
+      <c r="I40" s="11">
+        <v>13370</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11">
+        <f t="shared" si="27"/>
         <v>12814</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M40" s="11">
         <v>12911</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N40" s="11">
         <f>5726+17283</f>
         <v>23009</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O40" s="11">
         <f>5645+47951</f>
         <v>53596</v>
       </c>
-      <c r="P39" s="11">
-        <f t="shared" si="23"/>
+      <c r="P40" s="11">
+        <f t="shared" si="28"/>
         <v>42697</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q40" s="11">
         <f>3975+48733</f>
         <v>52708</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R40" s="11">
         <f>3305+37520</f>
         <v>40825</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S40" s="11">
         <f>12132+65930</f>
         <v>78062</v>
       </c>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11">
-        <f t="shared" si="24"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11">
+        <f t="shared" si="29"/>
         <v>6750</v>
       </c>
-      <c r="AA39" s="11">
+      <c r="AA40" s="11">
         <v>12837</v>
       </c>
-      <c r="AB39" s="11">
+      <c r="AB40" s="11">
         <v>12814</v>
       </c>
-      <c r="AC39" s="17">
+      <c r="AC40" s="17">
         <f>4253+38444</f>
         <v>42697</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="12">
-        <f>SUM(D37:D39)</f>
+      <c r="D41" s="12">
+        <f>SUM(D38:D40)</f>
         <v>255080</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12">
-        <f t="shared" ref="F40:S40" si="35">SUM(F37:F39)</f>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12">
+        <f t="shared" ref="F41:S41" si="40">SUM(F38:F40)</f>
         <v>269977</v>
       </c>
-      <c r="G40" s="12">
-        <f t="shared" si="35"/>
+      <c r="G41" s="12">
+        <f t="shared" si="40"/>
         <v>512838</v>
       </c>
-      <c r="H40" s="12">
-        <f t="shared" si="35"/>
+      <c r="H41" s="12">
+        <f t="shared" si="40"/>
         <v>554412</v>
       </c>
-      <c r="I40" s="12">
-        <f t="shared" si="35"/>
+      <c r="I41" s="12">
+        <f t="shared" si="40"/>
         <v>638418</v>
       </c>
-      <c r="J40" s="12">
-        <f t="shared" si="35"/>
+      <c r="J41" s="12">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="K40" s="12">
-        <f t="shared" si="35"/>
+      <c r="K41" s="12">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="L40" s="12">
-        <f t="shared" si="35"/>
+      <c r="L41" s="12">
+        <f t="shared" si="40"/>
         <v>929425</v>
       </c>
-      <c r="M40" s="12">
-        <f>SUM(M37:M39)</f>
+      <c r="M41" s="12">
+        <f>SUM(M38:M40)</f>
         <v>912940</v>
       </c>
-      <c r="N40" s="12">
-        <f t="shared" si="35"/>
+      <c r="N41" s="12">
+        <f t="shared" si="40"/>
         <v>920629</v>
       </c>
-      <c r="O40" s="12">
-        <f t="shared" si="35"/>
+      <c r="O41" s="12">
+        <f t="shared" si="40"/>
         <v>1285174</v>
       </c>
-      <c r="P40" s="12">
-        <f t="shared" si="35"/>
+      <c r="P41" s="12">
+        <f t="shared" si="40"/>
         <v>1246457</v>
       </c>
-      <c r="Q40" s="12">
-        <f t="shared" si="35"/>
+      <c r="Q41" s="12">
+        <f t="shared" si="40"/>
         <v>1231889</v>
       </c>
-      <c r="R40" s="12">
-        <f t="shared" si="35"/>
+      <c r="R41" s="12">
+        <f t="shared" si="40"/>
         <v>1077236</v>
       </c>
-      <c r="S40" s="12">
-        <f t="shared" si="35"/>
+      <c r="S41" s="12">
+        <f t="shared" si="40"/>
         <v>1528463</v>
       </c>
-      <c r="T40" s="38"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12">
-        <f t="shared" ref="Y40:Z40" si="36">SUM(Y37:Y39)</f>
+      <c r="T41" s="38"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12">
+        <f t="shared" ref="Y41:Z41" si="41">SUM(Y38:Y40)</f>
         <v>0</v>
       </c>
-      <c r="Z40" s="12">
-        <f t="shared" si="36"/>
+      <c r="Z41" s="12">
+        <f t="shared" si="41"/>
         <v>255080</v>
       </c>
-      <c r="AA40" s="12">
-        <f t="shared" ref="AA40" si="37">SUM(AA37:AA39)</f>
+      <c r="AA41" s="12">
+        <f t="shared" ref="AA41" si="42">SUM(AA38:AA40)</f>
         <v>554412</v>
       </c>
-      <c r="AB40" s="12">
-        <f t="shared" ref="AB40" si="38">SUM(AB37:AB39)</f>
+      <c r="AB41" s="12">
+        <f t="shared" ref="AB41" si="43">SUM(AB38:AB40)</f>
         <v>929425</v>
       </c>
-      <c r="AC40" s="16">
-        <f t="shared" ref="AC40" si="39">SUM(AC37:AC39)</f>
+      <c r="AC41" s="16">
+        <f t="shared" ref="AC41" si="44">SUM(AC38:AC40)</f>
         <v>1246457</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="11">
-        <v>68363</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
-        <v>1247113</v>
-      </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11">
-        <f t="shared" si="22"/>
-        <v>1248452</v>
-      </c>
-      <c r="M41" s="11">
-        <v>1249106</v>
-      </c>
-      <c r="N41" s="11">
-        <v>1249766</v>
-      </c>
-      <c r="O41" s="11">
-        <v>1250434</v>
-      </c>
-      <c r="P41" s="11">
-        <f t="shared" si="23"/>
-        <v>1251103</v>
-      </c>
-      <c r="Q41" s="11">
-        <v>1251758</v>
-      </c>
-      <c r="R41" s="11">
-        <v>1252420</v>
-      </c>
-      <c r="S41" s="11">
-        <v>1253089</v>
-      </c>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11">
-        <f t="shared" si="24"/>
-        <v>68363</v>
-      </c>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11">
-        <v>1248452</v>
-      </c>
-      <c r="AC41" s="17">
-        <v>1251103</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="11"/>
+        <v>128</v>
+      </c>
+      <c r="D42" s="11">
+        <v>68363</v>
+      </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11">
-        <f t="shared" si="21"/>
-        <v>68775</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="I42" s="11">
-        <v>66811</v>
+        <v>1247113</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11">
-        <f t="shared" si="22"/>
-        <v>57341</v>
+        <f t="shared" si="27"/>
+        <v>1248452</v>
       </c>
       <c r="M42" s="11">
-        <v>54457</v>
+        <v>1249106</v>
       </c>
       <c r="N42" s="11">
-        <v>78176</v>
+        <v>1249766</v>
       </c>
       <c r="O42" s="11">
-        <v>76080</v>
+        <v>1250434</v>
       </c>
       <c r="P42" s="11">
-        <f t="shared" si="23"/>
-        <v>69332</v>
+        <f t="shared" si="28"/>
+        <v>1251103</v>
       </c>
       <c r="Q42" s="11">
-        <v>66466</v>
+        <v>1251758</v>
       </c>
       <c r="R42" s="11">
-        <v>64418</v>
+        <v>1252420</v>
       </c>
       <c r="S42" s="11">
-        <v>76926</v>
+        <v>1253089</v>
       </c>
       <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11">
-        <v>68775</v>
-      </c>
+      <c r="Z42" s="11">
+        <f t="shared" si="29"/>
+        <v>68363</v>
+      </c>
+      <c r="AA42" s="11"/>
       <c r="AB42" s="11">
-        <v>57341</v>
+        <v>1248452</v>
       </c>
       <c r="AC42" s="17">
-        <v>69332</v>
+        <v>1251103</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11">
-        <f t="shared" si="21"/>
-        <v>72066</v>
+        <f t="shared" si="26"/>
+        <v>68775</v>
       </c>
       <c r="I43" s="11">
-        <v>70296</v>
+        <v>66811</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11">
-        <f t="shared" si="22"/>
-        <v>79125</v>
+        <f t="shared" si="27"/>
+        <v>57341</v>
       </c>
       <c r="M43" s="11">
-        <v>78947</v>
+        <v>54457</v>
       </c>
       <c r="N43" s="11">
-        <v>73859</v>
+        <v>78176</v>
       </c>
       <c r="O43" s="11">
-        <v>67925</v>
+        <v>76080</v>
       </c>
       <c r="P43" s="11">
-        <f t="shared" si="23"/>
-        <v>69858</v>
+        <f t="shared" si="28"/>
+        <v>69332</v>
       </c>
       <c r="Q43" s="11">
-        <v>69238</v>
+        <v>66466</v>
       </c>
       <c r="R43" s="11">
-        <v>69283</v>
+        <v>64418</v>
       </c>
       <c r="S43" s="11">
-        <v>68253</v>
+        <v>76926</v>
       </c>
       <c r="Y43" s="11"/>
       <c r="Z43" s="11"/>
       <c r="AA43" s="11">
-        <v>72066</v>
+        <v>68775</v>
       </c>
       <c r="AB43" s="11">
-        <v>79125</v>
+        <v>57341</v>
       </c>
       <c r="AC43" s="17">
-        <v>69858</v>
+        <v>69332</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="11">
-        <v>56862</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="11">
-        <v>59088</v>
-      </c>
+      <c r="G44" s="11"/>
       <c r="H44" s="11">
-        <f t="shared" si="21"/>
-        <v>47287</v>
+        <f t="shared" si="26"/>
+        <v>72066</v>
       </c>
       <c r="I44" s="11">
-        <f>48421+90862</f>
-        <v>139283</v>
+        <v>70296</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
+        <v>79125</v>
+      </c>
+      <c r="M44" s="11">
+        <v>78947</v>
+      </c>
+      <c r="N44" s="11">
+        <v>73859</v>
+      </c>
+      <c r="O44" s="11">
+        <v>67925</v>
+      </c>
+      <c r="P44" s="11">
+        <f t="shared" si="28"/>
+        <v>69858</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>69238</v>
+      </c>
+      <c r="R44" s="11">
+        <v>69283</v>
+      </c>
+      <c r="S44" s="11">
+        <v>68253</v>
+      </c>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11">
+        <v>72066</v>
+      </c>
+      <c r="AB44" s="11">
+        <v>79125</v>
+      </c>
+      <c r="AC44" s="17">
+        <v>69858</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="11">
+        <v>56862</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11">
+        <v>59088</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" si="26"/>
+        <v>47287</v>
+      </c>
+      <c r="I45" s="11">
+        <f>48421+90862</f>
+        <v>139283</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11">
+        <f t="shared" si="27"/>
         <v>76183</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M45" s="11">
         <f>51035+14230</f>
         <v>65265</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N45" s="11">
         <f>54369+13081</f>
         <v>67450</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O45" s="11">
         <f>57447+19877</f>
         <v>77324</v>
       </c>
-      <c r="P44" s="11">
-        <f t="shared" si="23"/>
+      <c r="P45" s="11">
+        <f t="shared" si="28"/>
         <v>80709</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="Q45" s="11">
         <f>74428+27715</f>
         <v>102143</v>
       </c>
-      <c r="R44" s="11">
+      <c r="R45" s="11">
         <f>78130+46286</f>
         <v>124416</v>
       </c>
-      <c r="S44" s="11">
+      <c r="S45" s="11">
         <f>79668+53695</f>
         <v>133363</v>
       </c>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11">
-        <f>D44</f>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11">
+        <f>D45</f>
         <v>56862</v>
       </c>
-      <c r="AA44" s="11">
+      <c r="AA45" s="11">
         <v>47287</v>
       </c>
-      <c r="AB44" s="11">
+      <c r="AB45" s="11">
         <f>49272+26911</f>
         <v>76183</v>
       </c>
-      <c r="AC44" s="17">
+      <c r="AC45" s="17">
         <f>10680+70029</f>
         <v>80709</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12">
-        <f>SUM(D40:D44)</f>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12">
+        <f>SUM(D41:D45)</f>
         <v>380305</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12">
-        <f t="shared" ref="F45:S45" si="40">SUM(F40:F44)</f>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12">
+        <f t="shared" ref="F46:S46" si="45">SUM(F41:F45)</f>
         <v>269977</v>
       </c>
-      <c r="G45" s="12">
-        <f t="shared" si="40"/>
+      <c r="G46" s="12">
+        <f t="shared" si="45"/>
         <v>571926</v>
       </c>
-      <c r="H45" s="12">
-        <f t="shared" si="40"/>
+      <c r="H46" s="12">
+        <f t="shared" si="45"/>
         <v>742540</v>
       </c>
-      <c r="I45" s="12">
-        <f t="shared" si="40"/>
+      <c r="I46" s="12">
+        <f t="shared" si="45"/>
         <v>2161921</v>
       </c>
-      <c r="J45" s="12">
-        <f t="shared" si="40"/>
+      <c r="J46" s="12">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="K45" s="12">
-        <f t="shared" si="40"/>
+      <c r="K46" s="12">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="L45" s="12">
-        <f t="shared" si="40"/>
+      <c r="L46" s="12">
+        <f t="shared" si="45"/>
         <v>2390526</v>
       </c>
-      <c r="M45" s="12">
-        <f t="shared" si="40"/>
+      <c r="M46" s="12">
+        <f t="shared" si="45"/>
         <v>2360715</v>
       </c>
-      <c r="N45" s="12">
-        <f t="shared" si="40"/>
+      <c r="N46" s="12">
+        <f t="shared" si="45"/>
         <v>2389880</v>
       </c>
-      <c r="O45" s="12">
-        <f t="shared" si="40"/>
+      <c r="O46" s="12">
+        <f t="shared" si="45"/>
         <v>2756937</v>
       </c>
-      <c r="P45" s="12">
-        <f t="shared" si="40"/>
+      <c r="P46" s="12">
+        <f t="shared" si="45"/>
         <v>2717459</v>
       </c>
-      <c r="Q45" s="12">
-        <f t="shared" si="40"/>
+      <c r="Q46" s="12">
+        <f t="shared" si="45"/>
         <v>2721494</v>
       </c>
-      <c r="R45" s="12">
-        <f t="shared" si="40"/>
+      <c r="R46" s="12">
+        <f t="shared" si="45"/>
         <v>2587773</v>
       </c>
-      <c r="S45" s="12">
-        <f t="shared" si="40"/>
+      <c r="S46" s="12">
+        <f t="shared" si="45"/>
         <v>3060094</v>
       </c>
-      <c r="Y45" s="12">
-        <f>SUM(Y40:Y44)</f>
+      <c r="Y46" s="12">
+        <f>SUM(Y41:Y45)</f>
         <v>0</v>
       </c>
-      <c r="Z45" s="12">
-        <f>SUM(Z40:Z44)</f>
+      <c r="Z46" s="12">
+        <f>SUM(Z41:Z45)</f>
         <v>380305</v>
       </c>
-      <c r="AA45" s="12">
-        <f t="shared" ref="AA45:AC45" si="41">SUM(AA40:AA44)</f>
+      <c r="AA46" s="12">
+        <f t="shared" ref="AA46:AC46" si="46">SUM(AA41:AA45)</f>
         <v>742540</v>
       </c>
-      <c r="AB45" s="12">
-        <f t="shared" si="41"/>
+      <c r="AB46" s="12">
+        <f t="shared" si="46"/>
         <v>2390526</v>
       </c>
-      <c r="AC45" s="16">
-        <f t="shared" si="41"/>
+      <c r="AC46" s="16">
+        <f t="shared" si="46"/>
         <v>2717459</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AA46" s="12"/>
-      <c r="AB46" s="12"/>
-      <c r="AC46" s="16"/>
-    </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC47" s="15"/>
-    </row>
-    <row r="48" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="16"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC48" s="15"/>
+    </row>
+    <row r="49" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T48" s="6"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="AC48" s="18"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC49" s="15"/>
+      <c r="T49" s="6"/>
+      <c r="AC49" s="18"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="AC50" s="15"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="AC51" s="15"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC52" s="15"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="AC53" s="15"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC54" s="15"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="AC55" s="15"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AC56" s="15"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AC57" s="15"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC58" s="15"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC59" s="15"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="AC60" s="15"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="AC61" s="15"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC62" s="15"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC63" s="15"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC64" s="15"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>28</v>
       </c>
-      <c r="AC64" s="15"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="AC65" s="15"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+    <row r="67" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="T66" s="13"/>
-      <c r="U66" s="45"/>
-      <c r="V66" s="45"/>
-    </row>
-    <row r="67" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="T67" s="13"/>
+    </row>
+    <row r="68" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T67" s="6"/>
-      <c r="U67" s="44"/>
-      <c r="V67" s="44"/>
+      <c r="T68" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17717,7 +18821,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="Z29 Z36 Z40" formula="1"/>
+    <ignoredError sqref="Z30 Z37 Z41" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -17727,7 +18831,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="Y22" sqref="Y21:Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DKNG.xlsx
+++ b/DKNG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF899B-7106-44E6-83E7-D29DB5E2DD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773ABFD-41D0-4681-B79E-E594D2BACB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,18 @@
     <sheet name="Catalysts" sheetId="4" r:id="rId4"/>
     <sheet name="DoR" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$E$17:$U$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$E$18:$U$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$E$2:$U$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$E$2:$U$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$E$3:$U$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$E$4:$U$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="165">
   <si>
     <t>Price</t>
   </si>
@@ -530,6 +542,12 @@
   <si>
     <t>moving the business on non-gaap data</t>
   </si>
+  <si>
+    <t>EPS exp.</t>
+  </si>
+  <si>
+    <t>Rev. Exp.</t>
+  </si>
 </sst>
 </file>
 
@@ -537,7 +555,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -585,7 +603,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +637,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9B9B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +741,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -773,10 +797,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -785,6 +818,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9B9B"/>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1091,12 +1130,6 @@
                 <c:pt idx="13">
                   <c:v>789957</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1240000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1040000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1127,7 +1160,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$19</c:f>
+              <c:f>Model!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1204,7 +1237,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$F$19:$U$19</c:f>
+              <c:f>Model!$F$21:$U$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1758,12 +1791,6 @@
                 <c:pt idx="4">
                   <c:v>2240461</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3680000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4690000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1793,7 +1820,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$19</c:f>
+              <c:f>Model!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1880,7 +1907,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$AA$19:$AE$19</c:f>
+              <c:f>Model!$AA$21:$AE$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1894,10 +1921,10 @@
                   <c:v>0.72871742443239906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64251910655887334</c:v>
+                  <c:v>10.378745245972604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27445652173913038</c:v>
+                  <c:v>6.6318238920023695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2241,7 +2268,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$14</c:f>
+              <c:f>Model!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2415,7 +2442,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$14:$U$14</c:f>
+              <c:f>Model!$B$15:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2509,7 +2536,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$17</c:f>
+              <c:f>Model!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2586,7 +2613,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$17:$U$17</c:f>
+              <c:f>Model!$B$19:$U$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2983,7 +3010,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$14</c:f>
+              <c:f>Model!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3086,7 +3113,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$Y$14:$AE$14</c:f>
+              <c:f>Model!$Y$15:$AE$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3141,7 +3168,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$21</c:f>
+              <c:f>Model!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3216,7 +3243,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$Y$21:$AE$21</c:f>
+              <c:f>Model!$Y$23:$AE$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3554,7 +3581,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$20</c:f>
+              <c:f>Model!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3692,11 +3719,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Model!$B$20:$S$20</c15:sqref>
+                    <c15:sqref>Model!$B$22:$S$22</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Model!$K$20:$S$20</c:f>
+              <c:f>Model!$K$22:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -11089,6 +11116,218 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Earning Reportings</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="95000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Earning Reportings</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>EPS exp.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>EPS</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Revenue Reportings</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="95000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Revenue Reportings</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Rev. Exp.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>Revenue</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.39999998"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11290,6 +11529,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13910,6 +14229,1040 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="409">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="409">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14613,6 +15966,162 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Chart 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BD79DE-6BE5-19E2-6CBE-9442C7A732F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="838199" y="5776912"/>
+              <a:ext cx="5876925" cy="3290888"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Chart 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB11E3F9-A5D3-4E61-8332-833055A25E6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6743700" y="5781675"/>
+              <a:ext cx="5876925" cy="3290888"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14922,8 +16431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15172,7 +16681,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="17">
-        <f>Model!S25+Model!S26+Model!S27</f>
+        <f>Model!S27+Model!S28+Model!S29</f>
         <v>1797065</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -15206,7 +16715,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="17">
-        <f>Model!S38+Model!S39+Model!S40</f>
+        <f>Model!S40+Model!S41+Model!S42</f>
         <v>1528463</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -15285,7 +16794,7 @@
         <v>73</v>
       </c>
       <c r="C13" s="41">
-        <f>C6/Model!AC16</f>
+        <f>C6/Model!AC17</f>
         <v>-13.800632911392404</v>
       </c>
       <c r="E13" s="5"/>
@@ -15297,7 +16806,7 @@
       <c r="B14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="7"/>
       <c r="E14" s="24"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -15318,13 +16827,19 @@
       <c r="B16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="41">
+        <f>C6/Model!AD18</f>
+        <v>-28.690789473684209</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="57">
+        <f>C6/Model!AE18</f>
+        <v>-155.74999999999997</v>
+      </c>
       <c r="E17" s="35" t="s">
         <v>83</v>
       </c>
@@ -15354,13 +16869,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AE68"/>
+  <dimension ref="A1:AE70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="R16:S16"/>
+      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15516,12 +17031,8 @@
       <c r="S3" s="17">
         <v>789957</v>
       </c>
-      <c r="T3" s="11">
-        <v>1240000</v>
-      </c>
-      <c r="U3" s="11">
-        <v>1040000</v>
-      </c>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
       <c r="Y3" s="11">
         <v>226277</v>
       </c>
@@ -15537,3281 +17048,3404 @@
       <c r="AC3" s="17">
         <v>2240461</v>
       </c>
-      <c r="AD3" s="47">
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="53">
+        <v>104370</v>
+      </c>
+      <c r="F4" s="54">
+        <v>66394</v>
+      </c>
+      <c r="G4" s="54">
+        <v>131755</v>
+      </c>
+      <c r="H4" s="54">
+        <v>233236</v>
+      </c>
+      <c r="I4" s="54">
+        <v>236206</v>
+      </c>
+      <c r="J4" s="54">
+        <v>245523</v>
+      </c>
+      <c r="K4" s="53">
+        <v>236852</v>
+      </c>
+      <c r="L4" s="54">
+        <v>447127</v>
+      </c>
+      <c r="M4" s="54">
+        <v>412203</v>
+      </c>
+      <c r="N4" s="54">
+        <v>438593</v>
+      </c>
+      <c r="O4" s="54">
+        <v>441420</v>
+      </c>
+      <c r="P4" s="54">
+        <v>802470</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>704299</v>
+      </c>
+      <c r="R4" s="54">
+        <v>764548</v>
+      </c>
+      <c r="S4" s="55">
+        <v>704867</v>
+      </c>
+      <c r="T4" s="11">
+        <v>1240000</v>
+      </c>
+      <c r="U4" s="11">
+        <v>1040000</v>
+      </c>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="47">
         <v>3680000</v>
       </c>
-      <c r="AE3" s="47">
+      <c r="AE4" s="47">
         <v>4690000</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="11">
-        <v>17834</v>
-      </c>
-      <c r="C4" s="11">
-        <v>25332</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11">
-        <v>43416</v>
-      </c>
-      <c r="F4" s="11">
-        <v>47330</v>
-      </c>
-      <c r="G4" s="11">
-        <v>96569</v>
-      </c>
-      <c r="H4" s="11">
-        <f t="shared" ref="H4:H13" si="0">AA4-G4-F4-E4</f>
-        <v>159274</v>
-      </c>
-      <c r="I4" s="11">
-        <v>183225</v>
-      </c>
-      <c r="J4" s="11">
-        <v>187006</v>
-      </c>
-      <c r="K4" s="11">
-        <v>170749</v>
-      </c>
-      <c r="L4" s="11">
-        <f t="shared" ref="L4:L16" si="1">AB4-K4-J4-I4</f>
-        <v>253182</v>
-      </c>
-      <c r="M4" s="11">
-        <v>313379</v>
-      </c>
-      <c r="N4" s="11">
-        <v>312767</v>
-      </c>
-      <c r="O4" s="11">
-        <v>372692</v>
-      </c>
-      <c r="P4" s="11">
-        <f t="shared" ref="P4:P16" si="2">AC4-O4-N4-M4</f>
-        <v>485435</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>521740</v>
-      </c>
-      <c r="R4" s="11">
-        <v>510323</v>
-      </c>
-      <c r="S4" s="17">
-        <v>543454</v>
-      </c>
-      <c r="T4"/>
-      <c r="Y4" s="11">
-        <v>48689</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>103889</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>346589</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>794162</v>
-      </c>
-      <c r="AC4" s="17">
-        <v>1484273</v>
-      </c>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="11">
-        <v>29671</v>
+        <v>17834</v>
       </c>
       <c r="C5" s="11">
-        <v>58351</v>
+        <v>25332</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11">
+        <v>43416</v>
+      </c>
+      <c r="F5" s="11">
+        <v>47330</v>
+      </c>
+      <c r="G5" s="11">
+        <v>96569</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" ref="H5:H14" si="0">AA5-G5-F5-E5</f>
+        <v>159274</v>
+      </c>
+      <c r="I5" s="11">
+        <v>183225</v>
+      </c>
+      <c r="J5" s="11">
+        <v>187006</v>
+      </c>
+      <c r="K5" s="11">
+        <v>170749</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" ref="L5:L17" si="1">AB5-K5-J5-I5</f>
+        <v>253182</v>
+      </c>
+      <c r="M5" s="11">
+        <v>313379</v>
+      </c>
+      <c r="N5" s="11">
+        <v>312767</v>
+      </c>
+      <c r="O5" s="11">
+        <v>372692</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" ref="P5:P17" si="2">AC5-O5-N5-M5</f>
+        <v>485435</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>521740</v>
+      </c>
+      <c r="R5" s="11">
+        <v>510323</v>
+      </c>
+      <c r="S5" s="17">
+        <v>543454</v>
+      </c>
+      <c r="T5"/>
+      <c r="Y5" s="11">
+        <v>48689</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>103889</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>346589</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>794162</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>1484273</v>
+      </c>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="11">
+        <v>29671</v>
+      </c>
+      <c r="C6" s="11">
+        <v>58351</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
         <v>53706</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F6" s="11">
         <v>46188</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G6" s="11">
         <v>203339</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>191959</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I6" s="11">
         <v>228686</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J6" s="11">
         <v>170712</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K6" s="11">
         <v>303658</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L6" s="11">
         <f t="shared" si="1"/>
         <v>278444</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M6" s="11">
         <v>321452</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N6" s="11">
         <v>197529</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O6" s="11">
         <v>321714</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P6" s="11">
         <f t="shared" si="2"/>
         <v>345282</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q6" s="11">
         <v>389133</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R6" s="11">
         <v>207487</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S6" s="17">
         <v>313323</v>
       </c>
-      <c r="T5"/>
-      <c r="Y5" s="11">
+      <c r="T6"/>
+      <c r="Y6" s="11">
         <v>145580</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z6" s="11">
         <v>185269</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA6" s="11">
         <v>495192</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB6" s="11">
         <v>981500</v>
       </c>
-      <c r="AC5" s="17">
+      <c r="AC6" s="17">
         <v>1185977</v>
       </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B7" s="11">
         <v>12234</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="11">
         <v>14323</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
         <v>18041</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>30549</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="11">
         <v>53909</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>66134</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I7" s="11">
         <v>56159</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J7" s="11">
         <v>62635</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K7" s="11">
         <v>65222</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L7" s="11">
         <f t="shared" si="1"/>
         <v>69639</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M7" s="11">
         <v>81352</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N7" s="11">
         <v>77202</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O7" s="11">
         <v>76299</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P7" s="11">
         <f t="shared" si="2"/>
         <v>83394</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q7" s="11">
         <v>88088</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R7" s="11">
         <v>89906</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S7" s="17">
         <v>89005</v>
       </c>
-      <c r="T6"/>
-      <c r="Y6" s="11">
+      <c r="T7"/>
+      <c r="Y7" s="11">
         <v>32885</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z7" s="11">
         <v>55929</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA7" s="11">
         <v>168633</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB7" s="11">
         <v>253655</v>
       </c>
-      <c r="AC6" s="17">
+      <c r="AC7" s="17">
         <v>318247</v>
       </c>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B8" s="11">
         <v>26183</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C8" s="11">
         <v>25185</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
         <v>39496</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>107308</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="11">
         <v>127386</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>173184</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I8" s="11">
         <v>168997</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J8" s="11">
         <v>198806</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K8" s="11">
         <v>219706</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L8" s="11">
         <f t="shared" si="1"/>
         <v>240816</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M8" s="11">
         <v>216606</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N8" s="11">
         <v>187609</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O8" s="11">
         <v>186261</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P8" s="11">
         <f t="shared" si="2"/>
         <v>173244</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q8" s="11">
         <v>160476</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R8" s="11">
         <v>136256</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S8" s="17">
         <v>130761</v>
       </c>
-      <c r="T7"/>
-      <c r="Y7" s="11">
+      <c r="T8"/>
+      <c r="Y8" s="11">
         <v>75904</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z8" s="11">
         <v>124868</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA8" s="11">
         <v>447374</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB8" s="11">
         <v>828325</v>
       </c>
-      <c r="AC7" s="17">
+      <c r="AC8" s="17">
         <v>763720</v>
       </c>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-    </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+    </row>
+    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="12">
-        <f t="shared" ref="B8:E8" si="3">B3-B4-B5-B6-B7</f>
+      <c r="B9" s="12">
+        <f t="shared" ref="B9:E9" si="3">B3-B5-B6-B7-B8</f>
         <v>-28532</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C9" s="12">
         <f t="shared" si="3"/>
         <v>-56177</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <f t="shared" si="3"/>
         <v>-66117</v>
       </c>
-      <c r="F8" s="12">
-        <f>F3-F4-F5-F6-F7</f>
+      <c r="F9" s="12">
+        <f>F3-F5-F6-F7-F8</f>
         <v>-160444</v>
       </c>
-      <c r="G8" s="12">
-        <f t="shared" ref="G8:S8" si="4">G3-G4-G5-G6-G7</f>
+      <c r="G9" s="12">
+        <f t="shared" ref="G9:S9" si="4">G3-G5-G6-G7-G8</f>
         <v>-348367</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="12">
         <f t="shared" si="4"/>
         <v>-268328</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I9" s="12">
         <f t="shared" si="4"/>
         <v>-324791</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J9" s="12">
         <f t="shared" si="4"/>
         <v>-321554</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K9" s="12">
         <f t="shared" si="4"/>
         <v>-546516</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L9" s="12">
         <f t="shared" si="4"/>
         <v>-368756</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M9" s="12">
         <f t="shared" si="4"/>
         <v>-515584</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N9" s="12">
         <f t="shared" si="4"/>
         <v>-308922</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O9" s="12">
         <f t="shared" si="4"/>
         <v>-455028</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P9" s="12">
         <f t="shared" si="4"/>
         <v>-232222</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q9" s="12">
         <f t="shared" si="4"/>
         <v>-389785</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R9" s="12">
         <f t="shared" si="4"/>
         <v>-69045</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S9" s="16">
         <f t="shared" si="4"/>
         <v>-286586</v>
       </c>
-      <c r="Y8" s="12">
-        <f t="shared" ref="Y8:AC8" si="5">Y3-Y4-Y5-Y6-Y7</f>
+      <c r="Y9" s="12">
+        <f t="shared" ref="Y9:AC9" si="5">Y3-Y5-Y6-Y7-Y8</f>
         <v>-76781</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="Z9" s="12">
         <f t="shared" si="5"/>
         <v>-146545</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA9" s="12">
         <f t="shared" si="5"/>
         <v>-843256</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AB9" s="12">
         <f t="shared" si="5"/>
         <v>-1561617</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AC9" s="16">
         <f t="shared" si="5"/>
         <v>-1511756</v>
       </c>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B10" s="11">
         <v>426</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C10" s="11">
         <v>277</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>-2351</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>-588</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>686</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H10" s="11">
         <f t="shared" si="0"/>
         <v>1183</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I10" s="11">
         <v>985</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J10" s="11">
         <v>1642</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K10" s="11">
         <v>-1556</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L10" s="11">
         <f t="shared" si="1"/>
         <v>886</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M10" s="11">
         <v>148</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N10" s="11">
         <v>1929</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O10" s="11">
         <v>6301</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P10" s="11">
         <f t="shared" si="2"/>
         <v>10324</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q10" s="11">
         <f>11795-655</f>
         <v>11140</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R10" s="11">
         <f>13411-666</f>
         <v>12745</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S10" s="17">
         <f>14420-670</f>
         <v>13750</v>
       </c>
-      <c r="T9"/>
-      <c r="Y9" s="11">
+      <c r="T10"/>
+      <c r="Y10" s="11">
         <v>666</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z10" s="11">
         <v>1348</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA10" s="11">
         <v>-1070</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AB10" s="11">
         <v>1957</v>
       </c>
-      <c r="AC9" s="17">
+      <c r="AC10" s="17">
         <v>18702</v>
       </c>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I11" s="11">
         <v>-26980</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J11" s="11">
         <v>16984</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K11" s="11">
         <v>7091</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L11" s="11">
         <f t="shared" si="1"/>
         <v>44921</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M11" s="11">
         <f>12681+37882</f>
         <v>50563</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N11" s="11">
         <f>14315-5573</f>
         <v>8742</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O11" s="11">
         <f>-6797+8257</f>
         <v>1460</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P11" s="11">
         <f t="shared" si="2"/>
         <v>-10669</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q11" s="11">
         <f>-17035+19</f>
         <v>-17016</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R11" s="11">
         <f>-20041+45</f>
         <v>-19996</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S11" s="17">
         <f>-7751-1217</f>
         <v>-8968</v>
       </c>
-      <c r="T10"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11">
+      <c r="T11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11">
         <v>3000</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA11" s="11">
         <v>0</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AB11" s="11">
         <f>30065+11951</f>
         <v>42016</v>
       </c>
-      <c r="AC10" s="17">
+      <c r="AC11" s="17">
         <f>29396+20700</f>
         <v>50096</v>
       </c>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-    </row>
-    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+    </row>
+    <row r="12" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="12">
-        <f>B8+B9+B10</f>
+      <c r="B12" s="12">
+        <f>B9+B10+B11</f>
         <v>-28106</v>
       </c>
-      <c r="C11" s="12">
-        <f t="shared" ref="C11:Q11" si="6">C8+C9+C10</f>
+      <c r="C12" s="12">
+        <f t="shared" ref="C12:Q12" si="6">C9+C10+C11</f>
         <v>-55900</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <f t="shared" si="6"/>
         <v>-68468</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="12">
         <f t="shared" si="6"/>
         <v>-161032</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <f t="shared" si="6"/>
         <v>-347681</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H12" s="12">
         <f t="shared" si="6"/>
         <v>-267145</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I12" s="12">
         <f t="shared" si="6"/>
         <v>-350786</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J12" s="12">
         <f t="shared" si="6"/>
         <v>-302928</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K12" s="12">
         <f t="shared" si="6"/>
         <v>-540981</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L12" s="12">
         <f t="shared" si="6"/>
         <v>-322949</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M12" s="12">
         <f t="shared" si="6"/>
         <v>-464873</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N12" s="12">
         <f t="shared" si="6"/>
         <v>-298251</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O12" s="12">
         <f t="shared" si="6"/>
         <v>-447267</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P12" s="12">
         <f t="shared" si="6"/>
         <v>-232567</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q12" s="12">
         <f t="shared" si="6"/>
         <v>-395661</v>
       </c>
-      <c r="R11" s="12">
-        <f>R8+R9+R10</f>
+      <c r="R12" s="12">
+        <f>R9+R10+R11</f>
         <v>-76296</v>
       </c>
-      <c r="S11" s="16">
-        <f>S8+S9+S10</f>
+      <c r="S12" s="16">
+        <f>S9+S10+S11</f>
         <v>-281804</v>
       </c>
-      <c r="Y11" s="12">
-        <f>Y8+Y9+Y10</f>
+      <c r="Y12" s="12">
+        <f>Y9+Y10+Y11</f>
         <v>-76115</v>
       </c>
-      <c r="Z11" s="12">
-        <f>Z8+Z9+Z10</f>
+      <c r="Z12" s="12">
+        <f>Z9+Z10+Z11</f>
         <v>-142197</v>
       </c>
-      <c r="AA11" s="12">
-        <f t="shared" ref="AA11:AC11" si="7">AA8+AA9+AA10</f>
+      <c r="AA12" s="12">
+        <f t="shared" ref="AA12:AC12" si="7">AA9+AA10+AA11</f>
         <v>-844326</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AB12" s="12">
         <f t="shared" si="7"/>
         <v>-1517644</v>
       </c>
-      <c r="AC11" s="16">
+      <c r="AC12" s="16">
         <f t="shared" si="7"/>
         <v>-1442958</v>
       </c>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B13" s="11">
         <v>-7</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C13" s="11">
         <v>-19</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
         <v>9</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>-323</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <v>13</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="11">
         <f t="shared" si="0"/>
         <v>923</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I13" s="11">
         <v>-4595</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J13" s="11">
         <v>2404</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K13" s="11">
         <v>3845</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L13" s="11">
         <f t="shared" si="1"/>
         <v>6615</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M13" s="11">
         <v>469</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N13" s="11">
         <v>-81226</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O13" s="11">
         <v>3177</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P13" s="11">
         <f t="shared" si="2"/>
         <v>9714</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q13" s="11">
         <v>1368</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R13" s="11">
         <v>651</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S13" s="17">
         <v>1291</v>
       </c>
-      <c r="T12"/>
-      <c r="Y12" s="11">
+      <c r="T13"/>
+      <c r="Y13" s="11">
         <v>-105</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z13" s="11">
         <v>-58</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA13" s="11">
         <v>622</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AB13" s="11">
         <v>8269</v>
       </c>
-      <c r="AC12" s="17">
+      <c r="AC13" s="17">
         <v>-67866</v>
       </c>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B14" s="11">
         <v>0</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11">
         <v>203</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>-82</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>-95</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>-592</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I14" s="11">
         <v>153</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J14" s="11">
         <v>194</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K14" s="11">
         <v>202</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L14" s="11">
         <f t="shared" si="1"/>
         <v>-3267</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M14" s="11">
         <v>2351</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N14" s="11">
         <v>78</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O14" s="11">
         <v>50</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P14" s="11">
         <f t="shared" si="2"/>
         <v>416</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q14" s="11">
         <v>119</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R14" s="11">
         <v>323</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S14" s="17">
         <v>8</v>
       </c>
-      <c r="T13"/>
-      <c r="Y13" s="11">
+      <c r="T14"/>
+      <c r="Y14" s="11">
         <v>0</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z14" s="11">
         <v>-479</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA14" s="11">
         <v>-566</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AB14" s="11">
         <v>-2718</v>
       </c>
-      <c r="AC13" s="17">
+      <c r="AC14" s="17">
         <v>2895</v>
       </c>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-    </row>
-    <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+    </row>
+    <row r="15" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="12">
-        <f>B11+B12+B13</f>
+      <c r="B15" s="12">
+        <f>B12+B13+B14</f>
         <v>-28113</v>
       </c>
-      <c r="C14" s="12">
-        <f t="shared" ref="C14:P14" si="8">C11+C12+C13</f>
+      <c r="C15" s="12">
+        <f t="shared" ref="C15:P15" si="8">C12+C13+C14</f>
         <v>-55919</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <v>0</v>
       </c>
-      <c r="E14" s="12">
-        <f>E11-E12-E13</f>
+      <c r="E15" s="12">
+        <f>E12-E13-E14</f>
         <v>-68680</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <f t="shared" si="8"/>
         <v>-161437</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <f t="shared" si="8"/>
         <v>-347763</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="12">
         <f t="shared" si="8"/>
         <v>-266814</v>
       </c>
-      <c r="I14" s="12">
-        <f>I11-I12-I13</f>
+      <c r="I15" s="12">
+        <f>I12-I13-I14</f>
         <v>-346344</v>
       </c>
-      <c r="J14" s="12">
-        <f>J11-J12-J13</f>
+      <c r="J15" s="12">
+        <f>J12-J13-J14</f>
         <v>-305526</v>
       </c>
-      <c r="K14" s="12">
-        <f>K11-K12-K13</f>
+      <c r="K15" s="12">
+        <f>K12-K13-K14</f>
         <v>-545028</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L15" s="12">
         <f t="shared" si="8"/>
         <v>-319601</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M15" s="12">
         <f t="shared" si="8"/>
         <v>-462053</v>
       </c>
-      <c r="N14" s="12">
-        <f>N11-N12-N13</f>
+      <c r="N15" s="12">
+        <f>N12-N13-N14</f>
         <v>-217103</v>
       </c>
-      <c r="O14" s="12">
-        <f>O11-O12-O13</f>
+      <c r="O15" s="12">
+        <f>O12-O13-O14</f>
         <v>-450494</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P15" s="12">
         <f t="shared" si="8"/>
         <v>-222437</v>
       </c>
-      <c r="Q14" s="12">
-        <f>Q11-Q12-Q13</f>
+      <c r="Q15" s="12">
+        <f>Q12-Q13-Q14</f>
         <v>-397148</v>
       </c>
-      <c r="R14" s="12">
-        <f>R11-R12-R13</f>
+      <c r="R15" s="12">
+        <f>R12-R13-R14</f>
         <v>-77270</v>
       </c>
-      <c r="S14" s="16">
-        <f>S11-S12-S13</f>
+      <c r="S15" s="16">
+        <f>S12-S13-S14</f>
         <v>-283103</v>
       </c>
-      <c r="T14" s="12">
-        <f>T15*T16</f>
+      <c r="T15" s="12">
+        <f>T16*T18</f>
         <v>37128.262295081971</v>
       </c>
-      <c r="U14" s="12">
-        <f>U15*U16</f>
+      <c r="U15" s="12">
+        <f>U16*U18</f>
         <v>-153154.08196721313</v>
       </c>
-      <c r="V14" s="12"/>
-      <c r="Y14" s="12">
-        <f t="shared" ref="Y14:AE14" si="9">Y11+Y12+Y13</f>
+      <c r="V15" s="12"/>
+      <c r="Y15" s="12">
+        <f t="shared" ref="Y15:AE15" si="9">Y12+Y13+Y14</f>
         <v>-76220</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="Z15" s="12">
         <f t="shared" si="9"/>
         <v>-142734</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA15" s="12">
         <f t="shared" si="9"/>
         <v>-844270</v>
       </c>
-      <c r="AB14" s="12">
-        <f>AB11-AB12-AB13</f>
+      <c r="AB15" s="12">
+        <f>AB12-AB13-AB14</f>
         <v>-1523195</v>
       </c>
-      <c r="AC14" s="16">
-        <f>AC11-AC12-AC13</f>
+      <c r="AC15" s="16">
+        <f>AC12-AC13-AC14</f>
         <v>-1377987</v>
       </c>
-      <c r="AD14" s="12">
+      <c r="AD15" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="12">
+      <c r="AE15" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="11">
-        <f>B14/B16</f>
+      <c r="B16" s="11">
+        <f>B15/B17</f>
         <v>187420</v>
       </c>
-      <c r="C15" s="11">
-        <f>C14/C16</f>
+      <c r="C16" s="11">
+        <f>C15/C17</f>
         <v>186396.66666666669</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <f t="shared" ref="E15:K15" si="10">E14/E16</f>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
+        <f t="shared" ref="E16:K16" si="10">E15/E17</f>
         <v>185621.62162162163</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <f t="shared" si="10"/>
         <v>293521.81818181818</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <f t="shared" si="10"/>
         <v>354860.20408163266</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H16" s="11">
         <f t="shared" si="10"/>
         <v>310248.83720930241</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I16" s="11">
         <f t="shared" si="10"/>
         <v>398096.55172413791</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J16" s="11">
         <f t="shared" si="10"/>
         <v>402007.89473684208</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K16" s="11">
         <f t="shared" si="10"/>
         <v>403724.44444444444</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L16" s="11">
         <f t="shared" si="1"/>
         <v>-800867.25069378421</v>
       </c>
-      <c r="M15" s="11">
-        <f t="shared" ref="M15:S15" si="11">M14/M16</f>
+      <c r="M16" s="11">
+        <f t="shared" ref="M16:S16" si="11">M15/M17</f>
         <v>405309.64912280708</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N16" s="11">
         <f t="shared" si="11"/>
         <v>434206</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O16" s="11">
         <f t="shared" si="11"/>
         <v>450494</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P16" s="11">
         <f t="shared" si="11"/>
         <v>427763.46153846133</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q16" s="11">
         <f t="shared" si="11"/>
         <v>456491.9540229885</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R16" s="11">
         <f t="shared" si="11"/>
         <v>454529.41176470584</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S16" s="17">
         <f t="shared" si="11"/>
         <v>464103.27868852462</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T16" s="11">
         <v>464103.27868852462</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U16" s="11">
         <v>464103.27868852462</v>
       </c>
-      <c r="V15" s="11"/>
-      <c r="Y15" s="11">
-        <f>Y14/Y16</f>
+      <c r="V16" s="11"/>
+      <c r="Y16" s="11">
+        <f>Y15/Y17</f>
         <v>169377.77777777778</v>
       </c>
-      <c r="Z15" s="11">
-        <f>Z14/Z16</f>
+      <c r="Z16" s="11">
+        <f>Z15/Z17</f>
         <v>185368.83116883115</v>
       </c>
-      <c r="AA15" s="11">
-        <f>AA14/AA16</f>
+      <c r="AA16" s="11">
+        <f>AA15/AA17</f>
         <v>305894.92753623193</v>
       </c>
-      <c r="AB15" s="11">
-        <f>AB14/AB16</f>
+      <c r="AB16" s="11">
+        <f>AB15/AB17</f>
         <v>402961.64021164022</v>
       </c>
-      <c r="AC15" s="17">
-        <f>AC14/AC16</f>
+      <c r="AC16" s="17">
+        <f>AC15/AC17</f>
         <v>436071.83544303797</v>
       </c>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-    </row>
-    <row r="16" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+    </row>
+    <row r="17" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>-0.15</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>-0.3</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
         <v>-0.37</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="2">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>-0.98</v>
       </c>
-      <c r="H16" s="2">
-        <f>AA16-G16-F16-E16</f>
+      <c r="H17" s="2">
+        <f>AA17-G17-F17-E17</f>
         <v>-0.85999999999999976</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I17" s="2">
         <v>-0.87</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J17" s="2">
         <v>-0.76</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K17" s="2">
         <v>-1.35</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L17" s="2">
         <f t="shared" si="1"/>
         <v>-0.79999999999999971</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M17" s="2">
         <v>-1.1399999999999999</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N17" s="2">
         <v>-0.5</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O17" s="2">
         <v>-1</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P17" s="2">
         <f t="shared" si="2"/>
         <v>-0.52000000000000024</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q17" s="2">
         <v>-0.87</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R17" s="2">
         <v>-0.17</v>
       </c>
-      <c r="S16" s="40">
+      <c r="S17" s="40">
         <v>-0.61</v>
       </c>
-      <c r="T16" s="43">
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="Y17" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>-0.77</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>-2.76</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>-3.78</v>
+      </c>
+      <c r="AC17" s="40">
+        <v>-3.16</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+    </row>
+    <row r="18" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51">
+        <v>-0.15</v>
+      </c>
+      <c r="F18" s="51">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="G18" s="51">
+        <v>-0.62</v>
+      </c>
+      <c r="H18" s="51">
+        <v>-0.43099999999999999</v>
+      </c>
+      <c r="I18" s="51">
+        <v>-0.434</v>
+      </c>
+      <c r="J18" s="51">
+        <v>-0.224</v>
+      </c>
+      <c r="K18" s="51">
+        <v>-0.97899999999999998</v>
+      </c>
+      <c r="L18" s="52">
+        <v>-0.80800000000000005</v>
+      </c>
+      <c r="M18" s="52">
+        <v>-1.1180000000000001</v>
+      </c>
+      <c r="N18" s="52">
+        <v>-0.755</v>
+      </c>
+      <c r="O18" s="52">
+        <v>-1.0009999999999999</v>
+      </c>
+      <c r="P18" s="52">
+        <v>-0.61699999999999999</v>
+      </c>
+      <c r="Q18" s="52">
+        <v>-0.877</v>
+      </c>
+      <c r="R18" s="52">
+        <v>-0.245</v>
+      </c>
+      <c r="S18" s="56">
+        <v>-0.69</v>
+      </c>
+      <c r="T18" s="43">
         <v>0.08</v>
       </c>
-      <c r="U16" s="43">
+      <c r="U18" s="43">
         <v>-0.33</v>
       </c>
-      <c r="V16" s="39"/>
-      <c r="Y16" s="2">
-        <v>-0.45</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>-0.77</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>-2.76</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>-3.78</v>
-      </c>
-      <c r="AC16" s="40">
-        <v>-3.16</v>
-      </c>
-      <c r="AD16" s="46">
+      <c r="V18" s="39"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="46">
         <v>-1.52</v>
       </c>
-      <c r="AE16" s="46">
+      <c r="AE18" s="46">
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="3">
-        <f>B4/B3</f>
+      <c r="B19" s="3">
+        <f>B5/B3</f>
         <v>0.31075100191671023</v>
       </c>
-      <c r="C17" s="3">
-        <f>C4/C3</f>
+      <c r="C19" s="3">
+        <f>C5/C3</f>
         <v>0.37801056495657626</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <f t="shared" ref="E17:J17" si="12">E4/E3</f>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19:J19" si="12">E5/E3</f>
         <v>0.49034356576539945</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F19" s="3">
         <f t="shared" si="12"/>
         <v>0.66726819021302397</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G19" s="3">
         <f t="shared" si="12"/>
         <v>0.72697913216296783</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H19" s="3">
         <f t="shared" si="12"/>
         <v>0.49429742755793349</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I19" s="3">
         <f t="shared" si="12"/>
         <v>0.58674057564462212</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J19" s="3">
         <f t="shared" si="12"/>
         <v>0.62836981905545941</v>
       </c>
-      <c r="K17" s="3">
-        <f t="shared" ref="K17:S17" si="13">K4/K3</f>
+      <c r="K19" s="3">
+        <f t="shared" ref="K19:S19" si="13">K5/K3</f>
         <v>0.80232028155380863</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L19" s="3">
         <f t="shared" si="13"/>
         <v>0.53490096656631281</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M19" s="3">
         <f t="shared" si="13"/>
         <v>0.7511391282463058</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N19" s="3">
         <f t="shared" si="13"/>
         <v>0.67090747235539538</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O19" s="3">
         <f t="shared" si="13"/>
         <v>0.74250604656351982</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P19" s="3">
         <f t="shared" si="13"/>
         <v>0.56767192939577815</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q19" s="3">
         <f t="shared" si="13"/>
         <v>0.67789078700503602</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R19" s="3">
         <f t="shared" si="13"/>
         <v>0.58327494750990649</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S19" s="7">
         <f t="shared" si="13"/>
         <v>0.68795390128829792</v>
       </c>
-      <c r="Y17" s="3">
-        <f>Y4/Y3</f>
+      <c r="Y19" s="3">
+        <f>Y5/Y3</f>
         <v>0.21517432173840029</v>
       </c>
-      <c r="Z17" s="3">
-        <f>Z4/Z3</f>
+      <c r="Z19" s="3">
+        <f>Z5/Z3</f>
         <v>0.32123001762468695</v>
       </c>
-      <c r="AA17" s="3">
-        <f>AA4/AA3</f>
+      <c r="AA19" s="3">
+        <f>AA5/AA3</f>
         <v>0.5639885311098527</v>
       </c>
-      <c r="AB17" s="3">
-        <f t="shared" ref="AB17:AC17" si="14">AB4/AB3</f>
+      <c r="AB19" s="3">
+        <f t="shared" ref="AB19:AC19" si="14">AB5/AB3</f>
         <v>0.61276750062691687</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AC19" s="7">
         <f t="shared" si="14"/>
         <v>0.6624855331112659</v>
       </c>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="4">
-        <f>B14/B3</f>
+      <c r="B20" s="4">
+        <f>B15/B3</f>
         <v>-0.48985886042864613</v>
       </c>
-      <c r="C18" s="4">
-        <f>C14/C3</f>
+      <c r="C20" s="4">
+        <f>C15/C3</f>
         <v>-0.83443758020712089</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
-        <f t="shared" ref="E18:J18" si="15">E14/E3</f>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <f t="shared" ref="E20:J20" si="15">E15/E3</f>
         <v>-0.77567707980393485</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F20" s="4">
         <f t="shared" si="15"/>
         <v>-2.2759724239049217</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G20" s="4">
         <f t="shared" si="15"/>
         <v>-2.6179875937245929</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H20" s="4">
         <f t="shared" si="15"/>
         <v>-0.82804144955512171</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I20" s="4">
         <f t="shared" si="15"/>
         <v>-1.1090957998693463</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J20" s="4">
         <f t="shared" si="15"/>
         <v>-1.0266158162665278</v>
       </c>
-      <c r="K18" s="4">
-        <f t="shared" ref="K18:S18" si="16">K14/K3</f>
+      <c r="K20" s="4">
+        <f t="shared" ref="K20:S20" si="16">K15/K3</f>
         <v>-2.5609931444090988</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L20" s="4">
         <f t="shared" si="16"/>
         <v>-0.67522526805049388</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M20" s="4">
         <f t="shared" si="16"/>
         <v>-1.1074963147613284</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N20" s="4">
         <f t="shared" si="16"/>
         <v>-0.46570138464343552</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O20" s="4">
         <f t="shared" si="16"/>
         <v>-0.89750925413098825</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P20" s="4">
         <f t="shared" si="16"/>
         <v>-0.26011977084266424</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q20" s="4">
         <f t="shared" si="16"/>
         <v>-0.51600983301544079</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R20" s="4">
         <f t="shared" si="16"/>
         <v>-8.8315939501238394E-2</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S20" s="8">
         <f t="shared" si="16"/>
         <v>-0.35837773448428206</v>
       </c>
-      <c r="T18"/>
-      <c r="Y18" s="4">
-        <f>Y14/Y3</f>
+      <c r="T20"/>
+      <c r="Y20" s="4">
+        <f>Y15/Y3</f>
         <v>-0.33684377996879933</v>
       </c>
-      <c r="Z18" s="4">
-        <f>Z14/Z3</f>
+      <c r="Z20" s="4">
+        <f>Z15/Z3</f>
         <v>-0.44134071302680805</v>
       </c>
-      <c r="AA18" s="4">
-        <f>AA14/AA3</f>
+      <c r="AA20" s="4">
+        <f>AA15/AA3</f>
         <v>-1.3738422083797102</v>
       </c>
-      <c r="AB18" s="4">
-        <f t="shared" ref="AB18:AC18" si="17">AB14/AB3</f>
+      <c r="AB20" s="4">
+        <f t="shared" ref="AB20:AC20" si="17">AB15/AB3</f>
         <v>-1.1752821126135684</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AC20" s="8">
         <f t="shared" si="17"/>
         <v>-0.61504618915482123</v>
       </c>
-      <c r="AD18" s="4">
-        <f>AD14/AD3</f>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="4">
-        <f>AE14/AE3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
         <f>F3/B3-1</f>
         <v>0.23594702909914611</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G21" s="4">
         <f>G3/C3-1</f>
         <v>0.98221267197898943</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
-        <f t="shared" ref="I19:U19" si="18">I3/E3-1</f>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <f t="shared" ref="I21:S21" si="18">I3/E3-1</f>
         <v>2.5268686047299584</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J21" s="4">
         <f t="shared" si="18"/>
         <v>3.195697226882463</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K21" s="4">
         <f t="shared" si="18"/>
         <v>0.60211840163811026</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L21" s="4">
         <f t="shared" si="18"/>
         <v>0.46893610946456343</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M21" s="4">
         <f t="shared" si="18"/>
         <v>0.33601365458760846</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N21" s="4">
         <f t="shared" si="18"/>
         <v>0.5664555367013322</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O21" s="4">
         <f t="shared" si="18"/>
         <v>1.3585206208092324</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P21" s="4">
         <f t="shared" si="18"/>
         <v>0.80665082131727672</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q21" s="4">
         <f t="shared" si="18"/>
         <v>0.84478134250548287</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R21" s="4">
         <f t="shared" si="18"/>
         <v>0.87678067719896613</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S21" s="8">
         <f t="shared" si="18"/>
         <v>0.57381389733393373</v>
       </c>
-      <c r="T19" s="42">
-        <f t="shared" si="18"/>
+      <c r="T21" s="42">
+        <f>T4/P3-1</f>
         <v>0.45006683170921957</v>
       </c>
-      <c r="U19" s="42">
-        <f t="shared" si="18"/>
+      <c r="U21" s="42">
+        <f>U4/Q3-1</f>
         <v>0.35126004999662186</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z21" s="3">
         <f>Z3/Y3-1</f>
         <v>0.42926589976002871</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AA21" s="3">
         <f>AA3/Z3-1</f>
         <v>0.90016387866794467</v>
       </c>
-      <c r="AB19" s="3">
-        <f t="shared" ref="AB19:AD19" si="19">AB3/AA3-1</f>
+      <c r="AB21" s="3">
+        <f t="shared" ref="AB21:AC21" si="19">AB3/AA3-1</f>
         <v>1.1089625926721474</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AC21" s="7">
         <f t="shared" si="19"/>
         <v>0.72871742443239906</v>
       </c>
-      <c r="AD19" s="7">
-        <f t="shared" si="19"/>
-        <v>0.64251910655887334</v>
-      </c>
-      <c r="AE19" s="3">
-        <f>AE3/AD3-1</f>
-        <v>0.27445652173913038</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="AD21" s="42">
+        <f>AD4/Z3-1</f>
+        <v>10.378745245972604</v>
+      </c>
+      <c r="AE21" s="42">
+        <f>AE4/AA3-1</f>
+        <v>6.6318238920023695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4">
-        <f>F5/B5-1</f>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
+        <f>F6/B6-1</f>
         <v>0.55667149742172484</v>
       </c>
-      <c r="G20" s="4">
-        <f t="shared" ref="G20:S20" si="20">G5/C5-1</f>
+      <c r="G22" s="4">
+        <f t="shared" ref="G22:S22" si="20">G6/C6-1</f>
         <v>2.484756045311991</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
         <f t="shared" si="20"/>
         <v>3.2581089636167277</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J22" s="4">
         <f t="shared" si="20"/>
         <v>2.696024941543258</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K22" s="4">
         <f t="shared" si="20"/>
         <v>0.49335838181558866</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L22" s="4">
         <f t="shared" si="20"/>
         <v>0.45053891716460281</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M22" s="4">
         <f t="shared" si="20"/>
         <v>0.40564791898061103</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N22" s="4">
         <f t="shared" si="20"/>
         <v>0.15708913257415991</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O22" s="4">
         <f t="shared" si="20"/>
         <v>5.9461631177179619E-2</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P22" s="4">
         <f t="shared" si="20"/>
         <v>0.24004108546063119</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q22" s="4">
         <f t="shared" si="20"/>
         <v>0.21054776451849722</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R22" s="4">
         <f t="shared" si="20"/>
         <v>5.0412850771279105E-2</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S22" s="8">
         <f t="shared" si="20"/>
         <v>-2.6082172364273903E-2</v>
       </c>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="3"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4">
-        <f>F14/B14-1</f>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <f>F15/B15-1</f>
         <v>4.7424323266816062</v>
       </c>
-      <c r="G21" s="4">
-        <f t="shared" ref="G21:S21" si="21">G14/C14-1</f>
+      <c r="G23" s="4">
+        <f t="shared" ref="G23:S23" si="21">G15/C15-1</f>
         <v>5.2190489815626178</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
         <f t="shared" si="21"/>
         <v>4.0428654630168896</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J23" s="4">
         <f t="shared" si="21"/>
         <v>0.89254012401122429</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K23" s="4">
         <f t="shared" si="21"/>
         <v>0.56723975811112748</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L23" s="4">
         <f t="shared" si="21"/>
         <v>0.19784194232686447</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M23" s="4">
         <f t="shared" si="21"/>
         <v>0.33408691936340751</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N23" s="4">
         <f t="shared" si="21"/>
         <v>-0.28941235770441798</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O23" s="4">
         <f t="shared" si="21"/>
         <v>-0.17344796964559617</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P23" s="4">
         <f t="shared" si="21"/>
         <v>-0.30401657066154364</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q23" s="4">
         <f t="shared" si="21"/>
         <v>-0.14047089836014481</v>
       </c>
-      <c r="R21" s="4">
-        <f>R14/N14-1</f>
+      <c r="R23" s="4">
+        <f>R15/N15-1</f>
         <v>-0.64408598683574159</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S23" s="8">
         <f t="shared" si="21"/>
         <v>-0.37157209640971911</v>
       </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="Z21" s="3">
-        <f>-(Z14/Y14-1)</f>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="Z23" s="3">
+        <f>-(Z15/Y15-1)</f>
         <v>-0.87265809498819213</v>
       </c>
-      <c r="AA21" s="3">
-        <f>-(AA14/Z14-1)</f>
+      <c r="AA23" s="3">
+        <f>-(AA15/Z15-1)</f>
         <v>-4.9149887202768783</v>
       </c>
-      <c r="AB21" s="3">
-        <f t="shared" ref="AB21:AC21" si="22">-(AB14/AA14-1)</f>
+      <c r="AB23" s="3">
+        <f t="shared" ref="AB23:AC23" si="22">-(AB15/AA15-1)</f>
         <v>-0.80415625333128027</v>
       </c>
-      <c r="AC21" s="7">
+      <c r="AC23" s="7">
         <f t="shared" si="22"/>
         <v>9.5331195283598014E-2</v>
       </c>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AC22" s="15"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AC23" s="15"/>
-    </row>
-    <row r="24" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC24" s="15"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC25" s="15"/>
+    </row>
+    <row r="26" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="12">
-        <f t="shared" ref="B24:P24" si="23">B25+B26+B27-B38-B39-B40</f>
+      <c r="B26" s="12">
+        <f t="shared" ref="B26:P26" si="23">B27+B28+B29-B40-B41-B42</f>
         <v>0</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C26" s="12">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D26" s="12">
         <f t="shared" si="23"/>
         <v>-14719</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E26" s="12">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F26" s="12">
         <f t="shared" si="23"/>
         <v>1121344</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G26" s="12">
         <f t="shared" si="23"/>
         <v>914600</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H26" s="12">
         <f t="shared" si="23"/>
         <v>1580813</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I26" s="12">
         <f t="shared" si="23"/>
         <v>2509478</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J26" s="12">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K26" s="12">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L26" s="12">
         <f t="shared" si="23"/>
         <v>1752366</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M26" s="12">
         <f t="shared" si="23"/>
         <v>1380752</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N26" s="12">
         <f t="shared" si="23"/>
         <v>1076731</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O26" s="12">
         <f t="shared" si="23"/>
         <v>768286</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P26" s="12">
         <f t="shared" si="23"/>
         <v>692451</v>
       </c>
-      <c r="Q24" s="12">
-        <f>Q25+Q26+Q27-Q38-Q39-Q40</f>
+      <c r="Q26" s="12">
+        <f>Q27+Q28+Q29-Q40-Q41-Q42</f>
         <v>417250</v>
       </c>
-      <c r="R24" s="12">
-        <f t="shared" ref="R24:S24" si="24">R25+R26+R27-R38-R39-R40</f>
+      <c r="R26" s="12">
+        <f t="shared" ref="R26:S26" si="24">R27+R28+R29-R40-R41-R42</f>
         <v>526729</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S26" s="12">
         <f t="shared" si="24"/>
         <v>268602</v>
       </c>
-      <c r="T24" s="6"/>
-      <c r="Y24" s="12">
-        <f t="shared" ref="Y24" si="25">Y25-Y38-Y39-Y40</f>
+      <c r="T26" s="6"/>
+      <c r="Y26" s="12">
+        <f t="shared" ref="Y26" si="25">Y27-Y40-Y41-Y42</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="12">
-        <f>Z25+Z26+Z27-Z38-Z39-Z40</f>
+      <c r="Z26" s="12">
+        <f>Z27+Z28+Z29-Z40-Z41-Z42</f>
         <v>-14719</v>
       </c>
-      <c r="AA24" s="12">
-        <f>AA25+AA26+AA27-AA38-AA39-AA40</f>
+      <c r="AA26" s="12">
+        <f>AA27+AA28+AA29-AA40-AA41-AA42</f>
         <v>1580813</v>
       </c>
-      <c r="AB24" s="12">
-        <f>AB25+AB26+AB27-AB38-AB39-AB40</f>
+      <c r="AB26" s="12">
+        <f>AB27+AB28+AB29-AB40-AB41-AB42</f>
         <v>1752366</v>
       </c>
-      <c r="AC24" s="16">
-        <f>AC25+AC26+AC27-AC38-AC39-AC40</f>
+      <c r="AC26" s="16">
+        <f>AC27+AC28+AC29-AC40-AC41-AC42</f>
         <v>692451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="11">
-        <v>76533</v>
-      </c>
-      <c r="F25" s="11">
-        <v>1244266</v>
-      </c>
-      <c r="G25" s="11">
-        <v>1140907</v>
-      </c>
-      <c r="H25" s="11">
-        <f>AA25</f>
-        <v>1817258</v>
-      </c>
-      <c r="I25" s="11">
-        <v>2818128</v>
-      </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11">
-        <f>AB25</f>
-        <v>2152892</v>
-      </c>
-      <c r="M25" s="11">
-        <v>1772892</v>
-      </c>
-      <c r="N25" s="11">
-        <v>1514371</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1382651</v>
-      </c>
-      <c r="P25" s="11">
-        <f>AC25</f>
-        <v>1309172</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>1087668</v>
-      </c>
-      <c r="R25" s="11">
-        <v>1113715</v>
-      </c>
-      <c r="S25" s="11">
-        <v>1111596</v>
-      </c>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11">
-        <f>D25</f>
-        <v>76533</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>1817258</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>2152892</v>
-      </c>
-      <c r="AC25" s="17">
-        <v>1309172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="11">
-        <v>144000</v>
-      </c>
-      <c r="F26" s="11">
-        <v>131995</v>
-      </c>
-      <c r="G26" s="11">
-        <v>257432</v>
-      </c>
-      <c r="H26" s="11">
-        <f t="shared" ref="H26:H45" si="26">AA26</f>
-        <v>287718</v>
-      </c>
-      <c r="I26" s="11">
-        <v>305732</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11">
-        <f t="shared" ref="L26:L45" si="27">AB26</f>
-        <v>476950</v>
-      </c>
-      <c r="M26" s="11">
-        <v>464854</v>
-      </c>
-      <c r="N26" s="11">
-        <v>426169</v>
-      </c>
-      <c r="O26" s="11">
-        <v>581355</v>
-      </c>
-      <c r="P26" s="11">
-        <f t="shared" ref="P26:P45" si="28">AC26</f>
-        <v>469653</v>
-      </c>
-      <c r="Q26" s="11">
-        <v>436935</v>
-      </c>
-      <c r="R26" s="11">
-        <v>381097</v>
-      </c>
-      <c r="S26" s="11">
-        <v>475984</v>
-      </c>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11">
-        <f t="shared" ref="Z26:Z42" si="29">D26</f>
-        <v>144000</v>
-      </c>
-      <c r="AA26" s="11">
-        <v>287718</v>
-      </c>
-      <c r="AB26" s="11">
-        <v>476950</v>
-      </c>
-      <c r="AC26" s="17">
-        <v>469653</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="D27" s="11">
-        <v>19828</v>
+        <v>76533</v>
       </c>
       <c r="F27" s="11">
-        <v>15060</v>
+        <v>1244266</v>
       </c>
       <c r="G27" s="11">
-        <v>29099</v>
+        <v>1140907</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="26"/>
-        <v>30249</v>
+        <f>AA27</f>
+        <v>1817258</v>
       </c>
       <c r="I27" s="11">
-        <v>24036</v>
+        <v>2818128</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11">
-        <f t="shared" si="27"/>
-        <v>51949</v>
+        <f>AB27</f>
+        <v>2152892</v>
       </c>
       <c r="M27" s="11">
-        <v>55946</v>
+        <v>1772892</v>
       </c>
       <c r="N27" s="11">
-        <v>56820</v>
+        <v>1514371</v>
       </c>
       <c r="O27" s="11">
-        <v>89454</v>
+        <v>1382651</v>
       </c>
       <c r="P27" s="11">
-        <f t="shared" si="28"/>
-        <v>160083</v>
+        <f>AC27</f>
+        <v>1309172</v>
       </c>
       <c r="Q27" s="11">
-        <v>124536</v>
+        <v>1087668</v>
       </c>
       <c r="R27" s="11">
-        <v>109153</v>
+        <v>1113715</v>
       </c>
       <c r="S27" s="11">
-        <v>209485</v>
+        <v>1111596</v>
       </c>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11">
-        <f t="shared" si="29"/>
-        <v>19828</v>
+        <f>D27</f>
+        <v>76533</v>
       </c>
       <c r="AA27" s="11">
-        <v>30249</v>
+        <v>1817258</v>
       </c>
       <c r="AB27" s="11">
-        <v>51949</v>
+        <v>2152892</v>
       </c>
       <c r="AC27" s="17">
-        <v>160083</v>
+        <v>1309172</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="D28" s="11">
-        <v>10016</v>
+        <v>144000</v>
       </c>
       <c r="F28" s="11">
-        <v>35104</v>
+        <v>131995</v>
       </c>
       <c r="G28" s="11">
-        <v>46084</v>
+        <v>257432</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="26"/>
-        <v>44522</v>
+        <f t="shared" ref="H28:H47" si="26">AA28</f>
+        <v>287718</v>
       </c>
       <c r="I28" s="11">
-        <v>48359</v>
+        <v>305732</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11">
-        <f t="shared" si="27"/>
-        <v>45864</v>
+        <f t="shared" ref="L28:L47" si="27">AB28</f>
+        <v>476950</v>
       </c>
       <c r="M28" s="11">
-        <v>48211</v>
+        <v>464854</v>
       </c>
       <c r="N28" s="11">
-        <v>45060</v>
+        <v>426169</v>
       </c>
       <c r="O28" s="11">
-        <v>40991</v>
+        <v>581355</v>
       </c>
       <c r="P28" s="11">
-        <f t="shared" si="28"/>
-        <v>51097</v>
+        <f t="shared" ref="P28:P47" si="28">AC28</f>
+        <v>469653</v>
       </c>
       <c r="Q28" s="11">
-        <v>41423</v>
+        <v>436935</v>
       </c>
       <c r="R28" s="11">
-        <v>32401</v>
+        <v>381097</v>
       </c>
       <c r="S28" s="11">
-        <v>27778</v>
+        <v>475984</v>
       </c>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11">
-        <f t="shared" si="29"/>
-        <v>10016</v>
+        <f t="shared" ref="Z28:Z44" si="29">D28</f>
+        <v>144000</v>
       </c>
       <c r="AA28" s="11">
-        <v>44522</v>
+        <v>287718</v>
       </c>
       <c r="AB28" s="11">
-        <v>45864</v>
+        <v>476950</v>
       </c>
       <c r="AC28" s="17">
-        <v>51097</v>
+        <v>469653</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="D29" s="11">
-        <v>10771</v>
+        <v>19828</v>
       </c>
       <c r="F29" s="11">
-        <v>24696</v>
+        <v>15060</v>
       </c>
       <c r="G29" s="11">
-        <v>12334</v>
+        <v>29099</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="26"/>
-        <v>14558</v>
+        <v>30249</v>
       </c>
       <c r="I29" s="11">
-        <v>15226</v>
+        <v>24036</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11">
         <f t="shared" si="27"/>
-        <v>25675</v>
+        <v>51949</v>
       </c>
       <c r="M29" s="11">
-        <v>56562</v>
+        <v>55946</v>
       </c>
       <c r="N29" s="11">
-        <v>95249</v>
+        <v>56820</v>
       </c>
       <c r="O29" s="11">
-        <v>98627</v>
+        <v>89454</v>
       </c>
       <c r="P29" s="11">
         <f t="shared" si="28"/>
-        <v>94836</v>
+        <v>160083</v>
       </c>
       <c r="Q29" s="11">
-        <v>115194</v>
+        <v>124536</v>
       </c>
       <c r="R29" s="11">
-        <v>82655</v>
+        <v>109153</v>
       </c>
       <c r="S29" s="11">
-        <v>143079</v>
+        <v>209485</v>
       </c>
       <c r="Y29" s="11"/>
       <c r="Z29" s="11">
         <f t="shared" si="29"/>
-        <v>10771</v>
+        <v>19828</v>
       </c>
       <c r="AA29" s="11">
-        <v>14558</v>
+        <v>30249</v>
       </c>
       <c r="AB29" s="11">
-        <v>25675</v>
+        <v>51949</v>
       </c>
       <c r="AC29" s="17">
-        <v>94836</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12">
-        <f t="shared" ref="D30:G30" si="30">SUM(D25:D29)</f>
-        <v>261148</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12">
-        <f t="shared" si="30"/>
-        <v>1451121</v>
-      </c>
-      <c r="G30" s="12">
-        <f t="shared" si="30"/>
-        <v>1485856</v>
-      </c>
-      <c r="H30" s="12">
-        <f>SUM(H25:H29)</f>
-        <v>2194305</v>
-      </c>
-      <c r="I30" s="12">
-        <f t="shared" ref="I30:S30" si="31">SUM(I25:I29)</f>
-        <v>3211481</v>
-      </c>
-      <c r="J30" s="12">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="12">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="12">
-        <f t="shared" si="31"/>
-        <v>2753330</v>
-      </c>
-      <c r="M30" s="12">
-        <f t="shared" si="31"/>
-        <v>2398465</v>
-      </c>
-      <c r="N30" s="12">
-        <f t="shared" si="31"/>
-        <v>2137669</v>
-      </c>
-      <c r="O30" s="12">
-        <f t="shared" si="31"/>
-        <v>2193078</v>
-      </c>
-      <c r="P30" s="12">
-        <f t="shared" si="31"/>
-        <v>2084841</v>
-      </c>
-      <c r="Q30" s="12">
-        <f t="shared" si="31"/>
-        <v>1805756</v>
-      </c>
-      <c r="R30" s="12">
-        <f t="shared" si="31"/>
-        <v>1719021</v>
-      </c>
-      <c r="S30" s="12">
-        <f t="shared" si="31"/>
-        <v>1967922</v>
-      </c>
-      <c r="T30" s="6"/>
-      <c r="Y30" s="12">
-        <f>SUM(Y25:Y29)</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="12">
-        <f>SUM(Z25:Z29)</f>
-        <v>261148</v>
-      </c>
-      <c r="AA30" s="12">
-        <f t="shared" ref="AA30" si="32">SUM(AA25:AA29)</f>
-        <v>2194305</v>
-      </c>
-      <c r="AB30" s="12">
-        <f t="shared" ref="AB30" si="33">SUM(AB25:AB29)</f>
-        <v>2753330</v>
-      </c>
-      <c r="AC30" s="16">
-        <f t="shared" ref="AC30" si="34">SUM(AC25:AC29)</f>
-        <v>2084841</v>
+        <v>160083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11">
+        <v>10016</v>
+      </c>
+      <c r="F30" s="11">
+        <v>35104</v>
+      </c>
+      <c r="G30" s="11">
+        <v>46084</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="26"/>
+        <v>44522</v>
+      </c>
+      <c r="I30" s="11">
+        <v>48359</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11">
+        <f t="shared" si="27"/>
+        <v>45864</v>
+      </c>
+      <c r="M30" s="11">
+        <v>48211</v>
+      </c>
+      <c r="N30" s="11">
+        <v>45060</v>
+      </c>
+      <c r="O30" s="11">
+        <v>40991</v>
+      </c>
+      <c r="P30" s="11">
+        <f t="shared" si="28"/>
+        <v>51097</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>41423</v>
+      </c>
+      <c r="R30" s="11">
+        <v>32401</v>
+      </c>
+      <c r="S30" s="11">
+        <v>27778</v>
+      </c>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11">
+        <f t="shared" si="29"/>
+        <v>10016</v>
+      </c>
+      <c r="AA30" s="11">
+        <v>44522</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>45864</v>
+      </c>
+      <c r="AC30" s="17">
+        <v>51097</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="11">
-        <v>25945</v>
+        <v>10771</v>
       </c>
       <c r="F31" s="11">
-        <v>37002</v>
+        <v>24696</v>
       </c>
       <c r="G31" s="11">
-        <v>39482</v>
+        <v>12334</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="26"/>
-        <v>40827</v>
+        <v>14558</v>
       </c>
       <c r="I31" s="11">
-        <v>42985</v>
+        <v>15226</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11">
         <f t="shared" si="27"/>
-        <v>46019</v>
+        <v>25675</v>
       </c>
       <c r="M31" s="11">
-        <v>49734</v>
+        <v>56562</v>
       </c>
       <c r="N31" s="11">
-        <v>53926</v>
+        <v>95249</v>
       </c>
       <c r="O31" s="11">
-        <v>58226</v>
+        <v>98627</v>
       </c>
       <c r="P31" s="11">
         <f t="shared" si="28"/>
-        <v>60102</v>
+        <v>94836</v>
       </c>
       <c r="Q31" s="11">
-        <v>62273</v>
+        <v>115194</v>
       </c>
       <c r="R31" s="11">
-        <v>59934</v>
+        <v>82655</v>
       </c>
       <c r="S31" s="11">
-        <v>64927</v>
+        <v>143079</v>
       </c>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11">
         <f t="shared" si="29"/>
-        <v>25945</v>
+        <v>10771</v>
       </c>
       <c r="AA31" s="11">
-        <v>40827</v>
+        <v>14558</v>
       </c>
       <c r="AB31" s="11">
-        <v>46019</v>
+        <v>25675</v>
       </c>
       <c r="AC31" s="17">
-        <v>60102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11">
-        <v>549252</v>
-      </c>
-      <c r="H32" s="11">
-        <f t="shared" si="26"/>
-        <v>555930</v>
-      </c>
-      <c r="I32" s="11">
-        <v>532077</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11">
-        <f t="shared" si="27"/>
-        <v>535017</v>
-      </c>
-      <c r="M32" s="11">
-        <v>523023</v>
-      </c>
-      <c r="N32" s="11">
-        <v>810525</v>
-      </c>
-      <c r="O32" s="11">
-        <v>788647</v>
-      </c>
-      <c r="P32" s="11">
-        <f t="shared" si="28"/>
-        <v>776934</v>
-      </c>
-      <c r="Q32" s="11">
-        <v>754509</v>
-      </c>
-      <c r="R32" s="11">
-        <v>734633</v>
-      </c>
-      <c r="S32" s="11">
-        <v>718958</v>
-      </c>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11">
-        <v>33939</v>
-      </c>
-      <c r="AA32" s="11">
-        <v>555930</v>
-      </c>
-      <c r="AB32" s="11">
-        <v>535017</v>
-      </c>
-      <c r="AC32" s="17">
-        <v>776934</v>
+        <v>94836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12">
+        <f t="shared" ref="D32:G32" si="30">SUM(D27:D31)</f>
+        <v>261148</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12">
+        <f t="shared" si="30"/>
+        <v>1451121</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="30"/>
+        <v>1485856</v>
+      </c>
+      <c r="H32" s="12">
+        <f>SUM(H27:H31)</f>
+        <v>2194305</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" ref="I32:S32" si="31">SUM(I27:I31)</f>
+        <v>3211481</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="31"/>
+        <v>2753330</v>
+      </c>
+      <c r="M32" s="12">
+        <f t="shared" si="31"/>
+        <v>2398465</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="31"/>
+        <v>2137669</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="31"/>
+        <v>2193078</v>
+      </c>
+      <c r="P32" s="12">
+        <f t="shared" si="31"/>
+        <v>2084841</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" si="31"/>
+        <v>1805756</v>
+      </c>
+      <c r="R32" s="12">
+        <f t="shared" si="31"/>
+        <v>1719021</v>
+      </c>
+      <c r="S32" s="12">
+        <f t="shared" si="31"/>
+        <v>1967922</v>
+      </c>
+      <c r="T32" s="6"/>
+      <c r="Y32" s="12">
+        <f>SUM(Y27:Y31)</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="12">
+        <f>SUM(Z27:Z31)</f>
+        <v>261148</v>
+      </c>
+      <c r="AA32" s="12">
+        <f t="shared" ref="AA32" si="32">SUM(AA27:AA31)</f>
+        <v>2194305</v>
+      </c>
+      <c r="AB32" s="12">
+        <f t="shared" ref="AB32" si="33">SUM(AB27:AB31)</f>
+        <v>2753330</v>
+      </c>
+      <c r="AC32" s="16">
+        <f t="shared" ref="AC32" si="34">SUM(AC27:AC31)</f>
+        <v>2084841</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="11">
-        <v>33939</v>
+        <v>25945</v>
       </c>
       <c r="F33" s="11">
-        <v>542095</v>
+        <v>37002</v>
       </c>
       <c r="G33" s="11">
-        <v>486327</v>
+        <v>39482</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="26"/>
-        <v>569603</v>
+        <v>40827</v>
       </c>
       <c r="I33" s="11">
-        <v>612479</v>
+        <v>42985</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11">
         <f t="shared" si="27"/>
-        <v>615655</v>
+        <v>46019</v>
       </c>
       <c r="M33" s="11">
-        <v>615655</v>
+        <v>49734</v>
       </c>
       <c r="N33" s="11">
-        <v>894019</v>
+        <v>53926</v>
       </c>
       <c r="O33" s="11">
-        <v>894019</v>
+        <v>58226</v>
       </c>
       <c r="P33" s="11">
         <f t="shared" si="28"/>
-        <v>886373</v>
+        <v>60102</v>
       </c>
       <c r="Q33" s="11">
-        <v>886373</v>
+        <v>62273</v>
       </c>
       <c r="R33" s="11">
-        <v>886373</v>
+        <v>59934</v>
       </c>
       <c r="S33" s="11">
-        <v>886373</v>
+        <v>64927</v>
       </c>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11">
-        <v>4738</v>
+        <f t="shared" si="29"/>
+        <v>25945</v>
       </c>
       <c r="AA33" s="11">
-        <v>569603</v>
+        <v>40827</v>
       </c>
       <c r="AB33" s="11">
-        <v>615655</v>
+        <v>46019</v>
       </c>
       <c r="AC33" s="17">
-        <v>886373</v>
+        <v>60102</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="11">
-        <v>4738</v>
-      </c>
-      <c r="F34" s="11">
-        <v>480578</v>
-      </c>
-      <c r="G34" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11">
+        <v>549252</v>
+      </c>
       <c r="H34" s="11">
         <f t="shared" si="26"/>
-        <v>68077</v>
+        <v>555930</v>
       </c>
       <c r="I34" s="11">
-        <v>73022</v>
+        <v>532077</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11">
         <f t="shared" si="27"/>
-        <v>63831</v>
+        <v>535017</v>
       </c>
       <c r="M34" s="11">
-        <v>61169</v>
+        <v>523023</v>
       </c>
       <c r="N34" s="11">
-        <v>77338</v>
+        <v>810525</v>
       </c>
       <c r="O34" s="11">
-        <v>74703</v>
+        <v>788647</v>
       </c>
       <c r="P34" s="11">
         <f t="shared" si="28"/>
-        <v>65957</v>
+        <v>776934</v>
       </c>
       <c r="Q34" s="11">
-        <v>60804</v>
+        <v>754509</v>
       </c>
       <c r="R34" s="11">
-        <v>58349</v>
+        <v>734633</v>
       </c>
       <c r="S34" s="11">
-        <v>77180</v>
+        <v>718958</v>
       </c>
       <c r="Y34" s="11"/>
       <c r="Z34" s="11">
-        <v>0</v>
+        <v>33939</v>
       </c>
       <c r="AA34" s="11">
-        <v>68077</v>
+        <v>555930</v>
       </c>
       <c r="AB34" s="11">
-        <v>63831</v>
+        <v>535017</v>
       </c>
       <c r="AC34" s="17">
-        <v>65957</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>776934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35"/>
+        <v>30</v>
+      </c>
       <c r="D35" s="11">
-        <v>2521</v>
-      </c>
-      <c r="E35"/>
+        <v>33939</v>
+      </c>
       <c r="F35" s="11">
-        <v>2236</v>
+        <v>542095</v>
       </c>
       <c r="G35" s="11">
-        <v>2141</v>
+        <v>486327</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="26"/>
-        <v>2955</v>
+        <v>569603</v>
       </c>
       <c r="I35" s="11">
-        <v>2802</v>
+        <v>612479</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11">
         <f t="shared" si="27"/>
-        <v>9825</v>
+        <v>615655</v>
       </c>
       <c r="M35" s="11">
-        <v>7474</v>
+        <v>615655</v>
       </c>
       <c r="N35" s="11">
-        <v>8796</v>
+        <v>894019</v>
       </c>
       <c r="O35" s="11">
-        <v>8746</v>
+        <v>894019</v>
       </c>
       <c r="P35" s="11">
         <f t="shared" si="28"/>
-        <v>10080</v>
+        <v>886373</v>
       </c>
       <c r="Q35" s="11">
-        <v>9961</v>
+        <v>886373</v>
       </c>
       <c r="R35" s="11">
-        <v>9638</v>
+        <v>886373</v>
       </c>
       <c r="S35" s="11">
-        <v>9630</v>
-      </c>
-      <c r="T35" s="6"/>
+        <v>886373</v>
+      </c>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11">
-        <f t="shared" si="29"/>
-        <v>2521</v>
+        <v>4738</v>
       </c>
       <c r="AA35" s="11">
-        <v>2955</v>
+        <v>569603</v>
       </c>
       <c r="AB35" s="11">
-        <v>9825</v>
+        <v>615655</v>
       </c>
       <c r="AC35" s="17">
-        <v>10080</v>
+        <v>886373</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="D36" s="11">
-        <v>2434</v>
+        <v>4738</v>
       </c>
       <c r="F36" s="11">
-        <v>3105</v>
-      </c>
-      <c r="G36" s="11">
-        <v>3601</v>
-      </c>
+        <v>480578</v>
+      </c>
+      <c r="G36" s="11"/>
       <c r="H36" s="11">
         <f t="shared" si="26"/>
-        <v>7632</v>
+        <v>68077</v>
       </c>
       <c r="I36" s="11">
-        <v>8305</v>
+        <v>73022</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11">
         <f t="shared" si="27"/>
-        <v>45377</v>
+        <v>63831</v>
       </c>
       <c r="M36" s="11">
-        <v>90795</v>
+        <v>61169</v>
       </c>
       <c r="N36" s="11">
-        <v>171491</v>
+        <v>77338</v>
       </c>
       <c r="O36" s="11">
-        <v>174634</v>
+        <v>74703</v>
       </c>
       <c r="P36" s="11">
         <f t="shared" si="28"/>
-        <v>155865</v>
+        <v>65957</v>
       </c>
       <c r="Q36" s="11">
-        <v>159598</v>
+        <v>60804</v>
       </c>
       <c r="R36" s="11">
-        <v>138316</v>
+        <v>58349</v>
       </c>
       <c r="S36" s="11">
-        <v>136526</v>
+        <v>77180</v>
       </c>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>68077</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>63831</v>
+      </c>
+      <c r="AC36" s="17">
+        <v>65957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" s="11">
+        <v>2521</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" s="11">
+        <v>2236</v>
+      </c>
+      <c r="G37" s="11">
+        <v>2141</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="26"/>
+        <v>2955</v>
+      </c>
+      <c r="I37" s="11">
+        <v>2802</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11">
+        <f t="shared" si="27"/>
+        <v>9825</v>
+      </c>
+      <c r="M37" s="11">
+        <v>7474</v>
+      </c>
+      <c r="N37" s="11">
+        <v>8796</v>
+      </c>
+      <c r="O37" s="11">
+        <v>8746</v>
+      </c>
+      <c r="P37" s="11">
+        <f t="shared" si="28"/>
+        <v>10080</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>9961</v>
+      </c>
+      <c r="R37" s="11">
+        <v>9638</v>
+      </c>
+      <c r="S37" s="11">
+        <v>9630</v>
+      </c>
+      <c r="T37" s="6"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11">
         <f t="shared" si="29"/>
-        <v>2434</v>
-      </c>
-      <c r="AA36" s="11">
-        <v>7632</v>
-      </c>
-      <c r="AB36" s="11">
-        <v>45377</v>
-      </c>
-      <c r="AC36" s="17">
-        <v>155865</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12">
-        <f>SUM(D30:D36)</f>
-        <v>330725</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12">
-        <f t="shared" ref="F37:S37" si="35">SUM(F30:F36)</f>
-        <v>2516137</v>
-      </c>
-      <c r="G37" s="12">
-        <f>SUM(G30:G36)</f>
-        <v>2566659</v>
-      </c>
-      <c r="H37" s="12">
-        <f>SUM(H30:H36)</f>
-        <v>3439329</v>
-      </c>
-      <c r="I37" s="12">
-        <f t="shared" si="35"/>
-        <v>4483151</v>
-      </c>
-      <c r="J37" s="12">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="12">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="12">
-        <f>SUM(L30:L36)</f>
-        <v>4069054</v>
-      </c>
-      <c r="M37" s="12">
-        <f t="shared" si="35"/>
-        <v>3746315</v>
-      </c>
-      <c r="N37" s="12">
-        <f>SUM(N30:N36)</f>
-        <v>4153764</v>
-      </c>
-      <c r="O37" s="12">
-        <f t="shared" si="35"/>
-        <v>4192053</v>
-      </c>
-      <c r="P37" s="12">
-        <f t="shared" si="35"/>
-        <v>4040152</v>
-      </c>
-      <c r="Q37" s="12">
-        <f t="shared" si="35"/>
-        <v>3739274</v>
-      </c>
-      <c r="R37" s="12">
-        <f t="shared" si="35"/>
-        <v>3606264</v>
-      </c>
-      <c r="S37" s="12">
-        <f t="shared" si="35"/>
-        <v>3861516</v>
-      </c>
-      <c r="Y37" s="12">
-        <f t="shared" ref="Y37:Z37" si="36">SUM(Y30:Y36)</f>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="12">
-        <f t="shared" si="36"/>
-        <v>330725</v>
-      </c>
-      <c r="AA37" s="12">
-        <f t="shared" ref="AA37" si="37">SUM(AA30:AA36)</f>
-        <v>3439329</v>
-      </c>
-      <c r="AB37" s="12">
-        <f t="shared" ref="AB37" si="38">SUM(AB30:AB36)</f>
-        <v>4069054</v>
-      </c>
-      <c r="AC37" s="16">
-        <f t="shared" ref="AC37" si="39">SUM(AC30:AC36)</f>
-        <v>4040152</v>
+        <v>2521</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>2955</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>9825</v>
+      </c>
+      <c r="AC37" s="17">
+        <v>10080</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D38" s="11">
-        <v>85295</v>
+        <v>2434</v>
       </c>
       <c r="F38" s="11">
-        <v>122946</v>
+        <v>3105</v>
       </c>
       <c r="G38" s="11">
-        <v>226332</v>
+        <v>3601</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="26"/>
-        <v>223633</v>
+        <v>7632</v>
       </c>
       <c r="I38" s="11">
-        <v>295306</v>
+        <v>8305</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11">
         <f t="shared" si="27"/>
-        <v>387737</v>
+        <v>45377</v>
       </c>
       <c r="M38" s="11">
-        <v>379254</v>
+        <v>90795</v>
       </c>
       <c r="N38" s="11">
-        <v>414680</v>
+        <v>171491</v>
       </c>
       <c r="O38" s="11">
-        <v>560794</v>
+        <v>174634</v>
       </c>
       <c r="P38" s="11">
         <f t="shared" si="28"/>
-        <v>517587</v>
+        <v>155865</v>
       </c>
       <c r="Q38" s="11">
-        <v>508725</v>
+        <v>159598</v>
       </c>
       <c r="R38" s="11">
-        <v>436265</v>
+        <v>138316</v>
       </c>
       <c r="S38" s="11">
-        <v>594067</v>
+        <v>136526</v>
       </c>
       <c r="Y38" s="11"/>
       <c r="Z38" s="11">
         <f t="shared" si="29"/>
-        <v>85295</v>
+        <v>2434</v>
       </c>
       <c r="AA38" s="11">
-        <v>223633</v>
+        <v>7632</v>
       </c>
       <c r="AB38" s="11">
-        <v>387737</v>
+        <v>45377</v>
       </c>
       <c r="AC38" s="17">
-        <v>517587</v>
+        <v>155865</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="11">
-        <v>163035</v>
-      </c>
-      <c r="F39" s="11">
-        <v>147031</v>
-      </c>
-      <c r="G39" s="11">
-        <v>286506</v>
-      </c>
-      <c r="H39" s="11">
-        <f t="shared" si="26"/>
-        <v>317942</v>
-      </c>
-      <c r="I39" s="11">
-        <v>329742</v>
-      </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11">
-        <f t="shared" si="27"/>
-        <v>528874</v>
-      </c>
-      <c r="M39" s="11">
-        <v>520775</v>
-      </c>
-      <c r="N39" s="11">
-        <v>482940</v>
-      </c>
-      <c r="O39" s="11">
-        <v>670784</v>
-      </c>
-      <c r="P39" s="11">
-        <f t="shared" si="28"/>
-        <v>686173</v>
-      </c>
-      <c r="Q39" s="11">
-        <v>670456</v>
-      </c>
-      <c r="R39" s="11">
-        <v>600146</v>
-      </c>
-      <c r="S39" s="11">
-        <v>856334</v>
-      </c>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11">
-        <f t="shared" si="29"/>
-        <v>163035</v>
-      </c>
-      <c r="AA39" s="11">
-        <v>317942</v>
-      </c>
-      <c r="AB39" s="11">
-        <v>528874</v>
-      </c>
-      <c r="AC39" s="17">
-        <v>686173</v>
+      <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12">
+        <f>SUM(D32:D38)</f>
+        <v>330725</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12">
+        <f t="shared" ref="F39:S39" si="35">SUM(F32:F38)</f>
+        <v>2516137</v>
+      </c>
+      <c r="G39" s="12">
+        <f>SUM(G32:G38)</f>
+        <v>2566659</v>
+      </c>
+      <c r="H39" s="12">
+        <f>SUM(H32:H38)</f>
+        <v>3439329</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" si="35"/>
+        <v>4483151</v>
+      </c>
+      <c r="J39" s="12">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="12">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="12">
+        <f>SUM(L32:L38)</f>
+        <v>4069054</v>
+      </c>
+      <c r="M39" s="12">
+        <f t="shared" si="35"/>
+        <v>3746315</v>
+      </c>
+      <c r="N39" s="12">
+        <f>SUM(N32:N38)</f>
+        <v>4153764</v>
+      </c>
+      <c r="O39" s="12">
+        <f t="shared" si="35"/>
+        <v>4192053</v>
+      </c>
+      <c r="P39" s="12">
+        <f t="shared" si="35"/>
+        <v>4040152</v>
+      </c>
+      <c r="Q39" s="12">
+        <f t="shared" si="35"/>
+        <v>3739274</v>
+      </c>
+      <c r="R39" s="12">
+        <f t="shared" si="35"/>
+        <v>3606264</v>
+      </c>
+      <c r="S39" s="12">
+        <f t="shared" si="35"/>
+        <v>3861516</v>
+      </c>
+      <c r="Y39" s="12">
+        <f t="shared" ref="Y39:Z39" si="36">SUM(Y32:Y38)</f>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="12">
+        <f t="shared" si="36"/>
+        <v>330725</v>
+      </c>
+      <c r="AA39" s="12">
+        <f t="shared" ref="AA39" si="37">SUM(AA32:AA38)</f>
+        <v>3439329</v>
+      </c>
+      <c r="AB39" s="12">
+        <f t="shared" ref="AB39" si="38">SUM(AB32:AB38)</f>
+        <v>4069054</v>
+      </c>
+      <c r="AC39" s="16">
+        <f t="shared" ref="AC39" si="39">SUM(AC32:AC38)</f>
+        <v>4040152</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="D40" s="11">
-        <v>6750</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+        <v>85295</v>
+      </c>
+      <c r="F40" s="11">
+        <v>122946</v>
+      </c>
+      <c r="G40" s="11">
+        <v>226332</v>
+      </c>
       <c r="H40" s="11">
         <f t="shared" si="26"/>
-        <v>12837</v>
+        <v>223633</v>
       </c>
       <c r="I40" s="11">
-        <v>13370</v>
+        <v>295306</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11">
         <f t="shared" si="27"/>
-        <v>12814</v>
+        <v>387737</v>
       </c>
       <c r="M40" s="11">
-        <v>12911</v>
+        <v>379254</v>
       </c>
       <c r="N40" s="11">
-        <f>5726+17283</f>
-        <v>23009</v>
+        <v>414680</v>
       </c>
       <c r="O40" s="11">
-        <f>5645+47951</f>
-        <v>53596</v>
+        <v>560794</v>
       </c>
       <c r="P40" s="11">
         <f t="shared" si="28"/>
-        <v>42697</v>
+        <v>517587</v>
       </c>
       <c r="Q40" s="11">
-        <f>3975+48733</f>
-        <v>52708</v>
+        <v>508725</v>
       </c>
       <c r="R40" s="11">
-        <f>3305+37520</f>
-        <v>40825</v>
+        <v>436265</v>
       </c>
       <c r="S40" s="11">
-        <f>12132+65930</f>
-        <v>78062</v>
+        <v>594067</v>
       </c>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11">
         <f t="shared" si="29"/>
-        <v>6750</v>
+        <v>85295</v>
       </c>
       <c r="AA40" s="11">
-        <v>12837</v>
+        <v>223633</v>
       </c>
       <c r="AB40" s="11">
-        <v>12814</v>
+        <v>387737</v>
       </c>
       <c r="AC40" s="17">
-        <f>4253+38444</f>
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="12">
-        <f>SUM(D38:D40)</f>
-        <v>255080</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12">
-        <f t="shared" ref="F41:S41" si="40">SUM(F38:F40)</f>
-        <v>269977</v>
-      </c>
-      <c r="G41" s="12">
-        <f t="shared" si="40"/>
-        <v>512838</v>
-      </c>
-      <c r="H41" s="12">
-        <f t="shared" si="40"/>
-        <v>554412</v>
-      </c>
-      <c r="I41" s="12">
-        <f t="shared" si="40"/>
-        <v>638418</v>
-      </c>
-      <c r="J41" s="12">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="12">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="12">
-        <f t="shared" si="40"/>
-        <v>929425</v>
-      </c>
-      <c r="M41" s="12">
-        <f>SUM(M38:M40)</f>
-        <v>912940</v>
-      </c>
-      <c r="N41" s="12">
-        <f t="shared" si="40"/>
-        <v>920629</v>
-      </c>
-      <c r="O41" s="12">
-        <f t="shared" si="40"/>
-        <v>1285174</v>
-      </c>
-      <c r="P41" s="12">
-        <f t="shared" si="40"/>
-        <v>1246457</v>
-      </c>
-      <c r="Q41" s="12">
-        <f t="shared" si="40"/>
-        <v>1231889</v>
-      </c>
-      <c r="R41" s="12">
-        <f t="shared" si="40"/>
-        <v>1077236</v>
-      </c>
-      <c r="S41" s="12">
-        <f t="shared" si="40"/>
-        <v>1528463</v>
-      </c>
-      <c r="T41" s="38"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12">
-        <f t="shared" ref="Y41:Z41" si="41">SUM(Y38:Y40)</f>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="12">
-        <f t="shared" si="41"/>
-        <v>255080</v>
-      </c>
-      <c r="AA41" s="12">
-        <f t="shared" ref="AA41" si="42">SUM(AA38:AA40)</f>
-        <v>554412</v>
-      </c>
-      <c r="AB41" s="12">
-        <f t="shared" ref="AB41" si="43">SUM(AB38:AB40)</f>
-        <v>929425</v>
-      </c>
-      <c r="AC41" s="16">
-        <f t="shared" ref="AC41" si="44">SUM(AC38:AC40)</f>
-        <v>1246457</v>
+        <v>517587</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="11">
+        <v>163035</v>
+      </c>
+      <c r="F41" s="11">
+        <v>147031</v>
+      </c>
+      <c r="G41" s="11">
+        <v>286506</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="26"/>
+        <v>317942</v>
+      </c>
+      <c r="I41" s="11">
+        <v>329742</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11">
+        <f t="shared" si="27"/>
+        <v>528874</v>
+      </c>
+      <c r="M41" s="11">
+        <v>520775</v>
+      </c>
+      <c r="N41" s="11">
+        <v>482940</v>
+      </c>
+      <c r="O41" s="11">
+        <v>670784</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" si="28"/>
+        <v>686173</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>670456</v>
+      </c>
+      <c r="R41" s="11">
+        <v>600146</v>
+      </c>
+      <c r="S41" s="11">
+        <v>856334</v>
+      </c>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11">
+        <f t="shared" si="29"/>
+        <v>163035</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>317942</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>528874</v>
+      </c>
+      <c r="AC41" s="17">
+        <v>686173</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="11">
-        <v>68363</v>
+        <v>6750</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>12837</v>
       </c>
       <c r="I42" s="11">
-        <v>1247113</v>
+        <v>13370</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11">
         <f t="shared" si="27"/>
-        <v>1248452</v>
+        <v>12814</v>
       </c>
       <c r="M42" s="11">
-        <v>1249106</v>
+        <v>12911</v>
       </c>
       <c r="N42" s="11">
-        <v>1249766</v>
+        <f>5726+17283</f>
+        <v>23009</v>
       </c>
       <c r="O42" s="11">
-        <v>1250434</v>
+        <f>5645+47951</f>
+        <v>53596</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" si="28"/>
-        <v>1251103</v>
+        <v>42697</v>
       </c>
       <c r="Q42" s="11">
-        <v>1251758</v>
+        <f>3975+48733</f>
+        <v>52708</v>
       </c>
       <c r="R42" s="11">
-        <v>1252420</v>
+        <f>3305+37520</f>
+        <v>40825</v>
       </c>
       <c r="S42" s="11">
-        <v>1253089</v>
+        <f>12132+65930</f>
+        <v>78062</v>
       </c>
       <c r="Y42" s="11"/>
       <c r="Z42" s="11">
         <f t="shared" si="29"/>
-        <v>68363</v>
-      </c>
-      <c r="AA42" s="11"/>
+        <v>6750</v>
+      </c>
+      <c r="AA42" s="11">
+        <v>12837</v>
+      </c>
       <c r="AB42" s="11">
-        <v>1248452</v>
+        <v>12814</v>
       </c>
       <c r="AC42" s="17">
-        <v>1251103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11">
-        <f t="shared" si="26"/>
-        <v>68775</v>
-      </c>
-      <c r="I43" s="11">
-        <v>66811</v>
-      </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11">
-        <f t="shared" si="27"/>
-        <v>57341</v>
-      </c>
-      <c r="M43" s="11">
-        <v>54457</v>
-      </c>
-      <c r="N43" s="11">
-        <v>78176</v>
-      </c>
-      <c r="O43" s="11">
-        <v>76080</v>
-      </c>
-      <c r="P43" s="11">
-        <f t="shared" si="28"/>
-        <v>69332</v>
-      </c>
-      <c r="Q43" s="11">
-        <v>66466</v>
-      </c>
-      <c r="R43" s="11">
-        <v>64418</v>
-      </c>
-      <c r="S43" s="11">
-        <v>76926</v>
-      </c>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11">
-        <v>68775</v>
-      </c>
-      <c r="AB43" s="11">
-        <v>57341</v>
-      </c>
-      <c r="AC43" s="17">
-        <v>69332</v>
+        <f>4253+38444</f>
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="12">
+        <f>SUM(D40:D42)</f>
+        <v>255080</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12">
+        <f t="shared" ref="F43:S43" si="40">SUM(F40:F42)</f>
+        <v>269977</v>
+      </c>
+      <c r="G43" s="12">
+        <f t="shared" si="40"/>
+        <v>512838</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" si="40"/>
+        <v>554412</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" si="40"/>
+        <v>638418</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="12">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="12">
+        <f t="shared" si="40"/>
+        <v>929425</v>
+      </c>
+      <c r="M43" s="12">
+        <f>SUM(M40:M42)</f>
+        <v>912940</v>
+      </c>
+      <c r="N43" s="12">
+        <f t="shared" si="40"/>
+        <v>920629</v>
+      </c>
+      <c r="O43" s="12">
+        <f t="shared" si="40"/>
+        <v>1285174</v>
+      </c>
+      <c r="P43" s="12">
+        <f t="shared" si="40"/>
+        <v>1246457</v>
+      </c>
+      <c r="Q43" s="12">
+        <f t="shared" si="40"/>
+        <v>1231889</v>
+      </c>
+      <c r="R43" s="12">
+        <f t="shared" si="40"/>
+        <v>1077236</v>
+      </c>
+      <c r="S43" s="12">
+        <f t="shared" si="40"/>
+        <v>1528463</v>
+      </c>
+      <c r="T43" s="38"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12">
+        <f t="shared" ref="Y43:Z43" si="41">SUM(Y40:Y42)</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="12">
+        <f t="shared" si="41"/>
+        <v>255080</v>
+      </c>
+      <c r="AA43" s="12">
+        <f t="shared" ref="AA43" si="42">SUM(AA40:AA42)</f>
+        <v>554412</v>
+      </c>
+      <c r="AB43" s="12">
+        <f t="shared" ref="AB43" si="43">SUM(AB40:AB42)</f>
+        <v>929425</v>
+      </c>
+      <c r="AC43" s="16">
+        <f t="shared" ref="AC43" si="44">SUM(AC40:AC42)</f>
+        <v>1246457</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="11"/>
+        <v>128</v>
+      </c>
+      <c r="D44" s="11">
+        <v>68363</v>
+      </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11">
         <f t="shared" si="26"/>
-        <v>72066</v>
+        <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>70296</v>
+        <v>1247113</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11">
         <f t="shared" si="27"/>
-        <v>79125</v>
+        <v>1248452</v>
       </c>
       <c r="M44" s="11">
-        <v>78947</v>
+        <v>1249106</v>
       </c>
       <c r="N44" s="11">
-        <v>73859</v>
+        <v>1249766</v>
       </c>
       <c r="O44" s="11">
-        <v>67925</v>
+        <v>1250434</v>
       </c>
       <c r="P44" s="11">
         <f t="shared" si="28"/>
-        <v>69858</v>
+        <v>1251103</v>
       </c>
       <c r="Q44" s="11">
-        <v>69238</v>
+        <v>1251758</v>
       </c>
       <c r="R44" s="11">
-        <v>69283</v>
+        <v>1252420</v>
       </c>
       <c r="S44" s="11">
-        <v>68253</v>
+        <v>1253089</v>
       </c>
       <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11">
-        <v>72066</v>
-      </c>
+      <c r="Z44" s="11">
+        <f t="shared" si="29"/>
+        <v>68363</v>
+      </c>
+      <c r="AA44" s="11"/>
       <c r="AB44" s="11">
-        <v>79125</v>
+        <v>1248452</v>
       </c>
       <c r="AC44" s="17">
-        <v>69858</v>
+        <v>1251103</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="11">
-        <v>56862</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="11">
-        <v>59088</v>
-      </c>
+      <c r="G45" s="11"/>
       <c r="H45" s="11">
         <f t="shared" si="26"/>
-        <v>47287</v>
+        <v>68775</v>
       </c>
       <c r="I45" s="11">
-        <f>48421+90862</f>
-        <v>139283</v>
+        <v>66811</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11">
         <f t="shared" si="27"/>
+        <v>57341</v>
+      </c>
+      <c r="M45" s="11">
+        <v>54457</v>
+      </c>
+      <c r="N45" s="11">
+        <v>78176</v>
+      </c>
+      <c r="O45" s="11">
+        <v>76080</v>
+      </c>
+      <c r="P45" s="11">
+        <f t="shared" si="28"/>
+        <v>69332</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>66466</v>
+      </c>
+      <c r="R45" s="11">
+        <v>64418</v>
+      </c>
+      <c r="S45" s="11">
+        <v>76926</v>
+      </c>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11">
+        <v>68775</v>
+      </c>
+      <c r="AB45" s="11">
+        <v>57341</v>
+      </c>
+      <c r="AC45" s="17">
+        <v>69332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11">
+        <f t="shared" si="26"/>
+        <v>72066</v>
+      </c>
+      <c r="I46" s="11">
+        <v>70296</v>
+      </c>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11">
+        <f t="shared" si="27"/>
+        <v>79125</v>
+      </c>
+      <c r="M46" s="11">
+        <v>78947</v>
+      </c>
+      <c r="N46" s="11">
+        <v>73859</v>
+      </c>
+      <c r="O46" s="11">
+        <v>67925</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="28"/>
+        <v>69858</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>69238</v>
+      </c>
+      <c r="R46" s="11">
+        <v>69283</v>
+      </c>
+      <c r="S46" s="11">
+        <v>68253</v>
+      </c>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11">
+        <v>72066</v>
+      </c>
+      <c r="AB46" s="11">
+        <v>79125</v>
+      </c>
+      <c r="AC46" s="17">
+        <v>69858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="11">
+        <v>56862</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11">
+        <v>59088</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" si="26"/>
+        <v>47287</v>
+      </c>
+      <c r="I47" s="11">
+        <f>48421+90862</f>
+        <v>139283</v>
+      </c>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11">
+        <f t="shared" si="27"/>
         <v>76183</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M47" s="11">
         <f>51035+14230</f>
         <v>65265</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N47" s="11">
         <f>54369+13081</f>
         <v>67450</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O47" s="11">
         <f>57447+19877</f>
         <v>77324</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P47" s="11">
         <f t="shared" si="28"/>
         <v>80709</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q47" s="11">
         <f>74428+27715</f>
         <v>102143</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R47" s="11">
         <f>78130+46286</f>
         <v>124416</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S47" s="11">
         <f>79668+53695</f>
         <v>133363</v>
       </c>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11">
-        <f>D45</f>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11">
+        <f>D47</f>
         <v>56862</v>
       </c>
-      <c r="AA45" s="11">
+      <c r="AA47" s="11">
         <v>47287</v>
       </c>
-      <c r="AB45" s="11">
+      <c r="AB47" s="11">
         <f>49272+26911</f>
         <v>76183</v>
       </c>
-      <c r="AC45" s="17">
+      <c r="AC47" s="17">
         <f>10680+70029</f>
         <v>80709</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12">
-        <f>SUM(D41:D45)</f>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12">
+        <f>SUM(D43:D47)</f>
         <v>380305</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12">
-        <f t="shared" ref="F46:S46" si="45">SUM(F41:F45)</f>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12">
+        <f t="shared" ref="F48:S48" si="45">SUM(F43:F47)</f>
         <v>269977</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G48" s="12">
         <f t="shared" si="45"/>
         <v>571926</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H48" s="12">
         <f t="shared" si="45"/>
         <v>742540</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I48" s="12">
         <f t="shared" si="45"/>
         <v>2161921</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J48" s="12">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K48" s="12">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L48" s="12">
         <f t="shared" si="45"/>
         <v>2390526</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M48" s="12">
         <f t="shared" si="45"/>
         <v>2360715</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N48" s="12">
         <f t="shared" si="45"/>
         <v>2389880</v>
       </c>
-      <c r="O46" s="12">
+      <c r="O48" s="12">
         <f t="shared" si="45"/>
         <v>2756937</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P48" s="12">
         <f t="shared" si="45"/>
         <v>2717459</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q48" s="12">
         <f t="shared" si="45"/>
         <v>2721494</v>
       </c>
-      <c r="R46" s="12">
+      <c r="R48" s="12">
         <f t="shared" si="45"/>
         <v>2587773</v>
       </c>
-      <c r="S46" s="12">
+      <c r="S48" s="12">
         <f t="shared" si="45"/>
         <v>3060094</v>
       </c>
-      <c r="Y46" s="12">
-        <f>SUM(Y41:Y45)</f>
+      <c r="Y48" s="12">
+        <f>SUM(Y43:Y47)</f>
         <v>0</v>
       </c>
-      <c r="Z46" s="12">
-        <f>SUM(Z41:Z45)</f>
+      <c r="Z48" s="12">
+        <f>SUM(Z43:Z47)</f>
         <v>380305</v>
       </c>
-      <c r="AA46" s="12">
-        <f t="shared" ref="AA46:AC46" si="46">SUM(AA41:AA45)</f>
+      <c r="AA48" s="12">
+        <f t="shared" ref="AA48:AC48" si="46">SUM(AA43:AA47)</f>
         <v>742540</v>
       </c>
-      <c r="AB46" s="12">
+      <c r="AB48" s="12">
         <f t="shared" si="46"/>
         <v>2390526</v>
       </c>
-      <c r="AC46" s="16">
+      <c r="AC48" s="16">
         <f t="shared" si="46"/>
         <v>2717459</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AA47" s="12"/>
-      <c r="AB47" s="12"/>
-      <c r="AC47" s="16"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC48" s="15"/>
-    </row>
-    <row r="49" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="16"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC50" s="15"/>
+    </row>
+    <row r="51" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T49" s="6"/>
-      <c r="AC49" s="18"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC50" s="15"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC51" s="15"/>
+      <c r="T51" s="6"/>
+      <c r="AC51" s="18"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC52" s="15"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="AC53" s="15"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="AC54" s="15"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="AC55" s="15"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="AC56" s="15"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AC57" s="15"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC58" s="15"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AC59" s="15"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC60" s="15"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="AC61" s="15"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC62" s="15"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="AC63" s="15"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC64" s="15"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="AC65" s="15"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC66" s="15"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC67" s="15"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+    <row r="69" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="T67" s="13"/>
-    </row>
-    <row r="68" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="T69" s="13"/>
+    </row>
+    <row r="70" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T68" s="6"/>
+      <c r="T70" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18821,7 +20455,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="Z30 Z37 Z41" formula="1"/>
+    <ignoredError sqref="Z32 Z39 Z43" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -18830,8 +20464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y21:Y22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
